--- a/BDs/BDXLKp/r+_BDXLKp_3.09w.xlsx
+++ b/BDs/BDXLKp/r+_BDXLKp_3.09w.xlsx
@@ -12,13 +12,14 @@
     <sheet name="均值偏差(%)方差" sheetId="3" r:id="rId3"/>
     <sheet name="门概率图" sheetId="4" r:id="rId4"/>
     <sheet name="方向图" sheetId="5" r:id="rId5"/>
+    <sheet name="置信区间验证" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="57">
   <si>
     <t>ID</t>
   </si>
@@ -132,6 +133,63 @@
   </si>
   <si>
     <t>Dir_combined_std(%)</t>
+  </si>
+  <si>
+    <t>实验 3c - Doors</t>
+  </si>
+  <si>
+    <t>类别</t>
+  </si>
+  <si>
+    <t>频数</t>
+  </si>
+  <si>
+    <t>估计概率</t>
+  </si>
+  <si>
+    <t>下界</t>
+  </si>
+  <si>
+    <t>上界</t>
+  </si>
+  <si>
+    <t>误差幅度</t>
+  </si>
+  <si>
+    <t>≤1%</t>
+  </si>
+  <si>
+    <t>Left</t>
+  </si>
+  <si>
+    <t>Up</t>
+  </si>
+  <si>
+    <t>Right</t>
+  </si>
+  <si>
+    <t>Down</t>
+  </si>
+  <si>
+    <t>实验 3c - Directions</t>
+  </si>
+  <si>
+    <t>Up-Left</t>
+  </si>
+  <si>
+    <t>Up-Right</t>
+  </si>
+  <si>
+    <t>Down-Right</t>
+  </si>
+  <si>
+    <t>Down-Left</t>
+  </si>
+  <si>
+    <t>实验 3d - Doors</t>
+  </si>
+  <si>
+    <t>实验 3d - Directions</t>
   </si>
 </sst>
 </file>
@@ -155,7 +213,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -183,6 +241,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFE2EFDA"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFDCE6F1"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -214,7 +278,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -223,6 +287,7 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1231,4 +1296,686 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:G36"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="18.7109375" customWidth="1"/>
+    <col min="2" max="2" width="12.7109375" customWidth="1"/>
+    <col min="3" max="7" width="14.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7">
+      <c r="A1" s="6" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="F2" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="G2" s="6" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" t="s">
+        <v>46</v>
+      </c>
+      <c r="B3">
+        <v>9846</v>
+      </c>
+      <c r="C3">
+        <v>0.318527</v>
+      </c>
+      <c r="D3">
+        <v>0.311946</v>
+      </c>
+      <c r="E3">
+        <v>0.325182</v>
+      </c>
+      <c r="F3">
+        <v>0.006655</v>
+      </c>
+      <c r="G3" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" t="s">
+        <v>47</v>
+      </c>
+      <c r="B4">
+        <v>5674</v>
+      </c>
+      <c r="C4">
+        <v>0.183559</v>
+      </c>
+      <c r="D4">
+        <v>0.178124</v>
+      </c>
+      <c r="E4">
+        <v>0.189123</v>
+      </c>
+      <c r="F4">
+        <v>0.005563</v>
+      </c>
+      <c r="G4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" t="s">
+        <v>48</v>
+      </c>
+      <c r="B5">
+        <v>9898</v>
+      </c>
+      <c r="C5">
+        <v>0.32021</v>
+      </c>
+      <c r="D5">
+        <v>0.313618</v>
+      </c>
+      <c r="E5">
+        <v>0.326873</v>
+      </c>
+      <c r="F5">
+        <v>0.006664</v>
+      </c>
+      <c r="G5" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" t="s">
+        <v>49</v>
+      </c>
+      <c r="B6">
+        <v>11167</v>
+      </c>
+      <c r="C6">
+        <v>0.361263</v>
+      </c>
+      <c r="D6">
+        <v>0.354467</v>
+      </c>
+      <c r="E6">
+        <v>0.368115</v>
+      </c>
+      <c r="F6">
+        <v>0.006852</v>
+      </c>
+      <c r="G6" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" s="6" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="E9" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="F9" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="G9" s="6" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10" t="s">
+        <v>46</v>
+      </c>
+      <c r="B10">
+        <v>3638</v>
+      </c>
+      <c r="C10">
+        <v>0.117693</v>
+      </c>
+      <c r="D10">
+        <v>0.112773</v>
+      </c>
+      <c r="E10">
+        <v>0.122797</v>
+      </c>
+      <c r="F10">
+        <v>0.005104</v>
+      </c>
+      <c r="G10" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11" t="s">
+        <v>51</v>
+      </c>
+      <c r="B11">
+        <v>4614</v>
+      </c>
+      <c r="C11">
+        <v>0.149267</v>
+      </c>
+      <c r="D11">
+        <v>0.14381</v>
+      </c>
+      <c r="E11">
+        <v>0.154894</v>
+      </c>
+      <c r="F11">
+        <v>0.005627</v>
+      </c>
+      <c r="G11" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12" t="s">
+        <v>47</v>
+      </c>
+      <c r="B12">
+        <v>1881</v>
+      </c>
+      <c r="C12">
+        <v>0.060852</v>
+      </c>
+      <c r="D12">
+        <v>0.057239</v>
+      </c>
+      <c r="E12">
+        <v>0.064677</v>
+      </c>
+      <c r="F12">
+        <v>0.003825</v>
+      </c>
+      <c r="G12" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13" t="s">
+        <v>52</v>
+      </c>
+      <c r="B13">
+        <v>4495</v>
+      </c>
+      <c r="C13">
+        <v>0.145417</v>
+      </c>
+      <c r="D13">
+        <v>0.140021</v>
+      </c>
+      <c r="E13">
+        <v>0.150986</v>
+      </c>
+      <c r="F13">
+        <v>0.005568</v>
+      </c>
+      <c r="G13" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14" t="s">
+        <v>48</v>
+      </c>
+      <c r="B14">
+        <v>3612</v>
+      </c>
+      <c r="C14">
+        <v>0.116852</v>
+      </c>
+      <c r="D14">
+        <v>0.111948</v>
+      </c>
+      <c r="E14">
+        <v>0.121941</v>
+      </c>
+      <c r="F14">
+        <v>0.005089</v>
+      </c>
+      <c r="G14" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="A15" t="s">
+        <v>53</v>
+      </c>
+      <c r="B15">
+        <v>3885</v>
+      </c>
+      <c r="C15">
+        <v>0.125683</v>
+      </c>
+      <c r="D15">
+        <v>0.120618</v>
+      </c>
+      <c r="E15">
+        <v>0.13093</v>
+      </c>
+      <c r="F15">
+        <v>0.005246</v>
+      </c>
+      <c r="G15" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="A16" t="s">
+        <v>49</v>
+      </c>
+      <c r="B16">
+        <v>4761</v>
+      </c>
+      <c r="C16">
+        <v>0.154023</v>
+      </c>
+      <c r="D16">
+        <v>0.148493</v>
+      </c>
+      <c r="E16">
+        <v>0.15972</v>
+      </c>
+      <c r="F16">
+        <v>0.005698</v>
+      </c>
+      <c r="G16" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
+      <c r="A17" t="s">
+        <v>54</v>
+      </c>
+      <c r="B17">
+        <v>4025</v>
+      </c>
+      <c r="C17">
+        <v>0.130213</v>
+      </c>
+      <c r="D17">
+        <v>0.125068</v>
+      </c>
+      <c r="E17">
+        <v>0.135536</v>
+      </c>
+      <c r="F17">
+        <v>0.005324</v>
+      </c>
+      <c r="G17" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
+      <c r="A20" s="6" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
+      <c r="A21" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="B21" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="C21" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="D21" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="E21" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="F21" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="G21" s="6" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
+      <c r="A22" t="s">
+        <v>46</v>
+      </c>
+      <c r="B22">
+        <v>10166</v>
+      </c>
+      <c r="C22">
+        <v>0.32888</v>
+      </c>
+      <c r="D22">
+        <v>0.322241</v>
+      </c>
+      <c r="E22">
+        <v>0.335588</v>
+      </c>
+      <c r="F22">
+        <v>0.006708</v>
+      </c>
+      <c r="G22" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
+      <c r="A23" t="s">
+        <v>47</v>
+      </c>
+      <c r="B23">
+        <v>5386</v>
+      </c>
+      <c r="C23">
+        <v>0.174242</v>
+      </c>
+      <c r="D23">
+        <v>0.168919</v>
+      </c>
+      <c r="E23">
+        <v>0.179697</v>
+      </c>
+      <c r="F23">
+        <v>0.005454</v>
+      </c>
+      <c r="G23" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
+      <c r="A24" t="s">
+        <v>48</v>
+      </c>
+      <c r="B24">
+        <v>10108</v>
+      </c>
+      <c r="C24">
+        <v>0.327003</v>
+      </c>
+      <c r="D24">
+        <v>0.320374</v>
+      </c>
+      <c r="E24">
+        <v>0.333702</v>
+      </c>
+      <c r="F24">
+        <v>0.006699</v>
+      </c>
+      <c r="G24" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
+      <c r="A25" t="s">
+        <v>49</v>
+      </c>
+      <c r="B25">
+        <v>11238</v>
+      </c>
+      <c r="C25">
+        <v>0.36356</v>
+      </c>
+      <c r="D25">
+        <v>0.356754</v>
+      </c>
+      <c r="E25">
+        <v>0.37042</v>
+      </c>
+      <c r="F25">
+        <v>0.006861</v>
+      </c>
+      <c r="G25" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
+      <c r="A27" s="6" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
+      <c r="A28" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="B28" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="C28" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="D28" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="E28" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="F28" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="G28" s="6" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
+      <c r="A29" t="s">
+        <v>46</v>
+      </c>
+      <c r="B29">
+        <v>4303</v>
+      </c>
+      <c r="C29">
+        <v>0.139206</v>
+      </c>
+      <c r="D29">
+        <v>0.13391</v>
+      </c>
+      <c r="E29">
+        <v>0.144677</v>
+      </c>
+      <c r="F29">
+        <v>0.005471</v>
+      </c>
+      <c r="G29" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7">
+      <c r="A30" t="s">
+        <v>51</v>
+      </c>
+      <c r="B30">
+        <v>3538</v>
+      </c>
+      <c r="C30">
+        <v>0.114458</v>
+      </c>
+      <c r="D30">
+        <v>0.109599</v>
+      </c>
+      <c r="E30">
+        <v>0.119503</v>
+      </c>
+      <c r="F30">
+        <v>0.005045</v>
+      </c>
+      <c r="G30" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7">
+      <c r="A31" t="s">
+        <v>47</v>
+      </c>
+      <c r="B31">
+        <v>1527</v>
+      </c>
+      <c r="C31">
+        <v>0.0494</v>
+      </c>
+      <c r="D31">
+        <v>0.046137</v>
+      </c>
+      <c r="E31">
+        <v>0.05288</v>
+      </c>
+      <c r="F31">
+        <v>0.003481</v>
+      </c>
+      <c r="G31" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7">
+      <c r="A32" t="s">
+        <v>52</v>
+      </c>
+      <c r="B32">
+        <v>3692</v>
+      </c>
+      <c r="C32">
+        <v>0.11944</v>
+      </c>
+      <c r="D32">
+        <v>0.114488</v>
+      </c>
+      <c r="E32">
+        <v>0.124576</v>
+      </c>
+      <c r="F32">
+        <v>0.005136</v>
+      </c>
+      <c r="G32" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7">
+      <c r="A33" t="s">
+        <v>48</v>
+      </c>
+      <c r="B33">
+        <v>4291</v>
+      </c>
+      <c r="C33">
+        <v>0.138818</v>
+      </c>
+      <c r="D33">
+        <v>0.133528</v>
+      </c>
+      <c r="E33">
+        <v>0.144283</v>
+      </c>
+      <c r="F33">
+        <v>0.005465</v>
+      </c>
+      <c r="G33" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7">
+      <c r="A34" t="s">
+        <v>53</v>
+      </c>
+      <c r="B34">
+        <v>4407</v>
+      </c>
+      <c r="C34">
+        <v>0.142571</v>
+      </c>
+      <c r="D34">
+        <v>0.137219</v>
+      </c>
+      <c r="E34">
+        <v>0.148095</v>
+      </c>
+      <c r="F34">
+        <v>0.005524</v>
+      </c>
+      <c r="G34" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7">
+      <c r="A35" t="s">
+        <v>49</v>
+      </c>
+      <c r="B35">
+        <v>4665</v>
+      </c>
+      <c r="C35">
+        <v>0.150917</v>
+      </c>
+      <c r="D35">
+        <v>0.145434</v>
+      </c>
+      <c r="E35">
+        <v>0.156569</v>
+      </c>
+      <c r="F35">
+        <v>0.005652</v>
+      </c>
+      <c r="G35" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7">
+      <c r="A36" t="s">
+        <v>54</v>
+      </c>
+      <c r="B36">
+        <v>4488</v>
+      </c>
+      <c r="C36">
+        <v>0.145191</v>
+      </c>
+      <c r="D36">
+        <v>0.139798</v>
+      </c>
+      <c r="E36">
+        <v>0.150756</v>
+      </c>
+      <c r="F36">
+        <v>0.005565</v>
+      </c>
+      <c r="G36" t="b">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/BDs/BDXLKp/r+_BDXLKp_3.09w.xlsx
+++ b/BDs/BDXLKp/r+_BDXLKp_3.09w.xlsx
@@ -13,13 +13,15 @@
     <sheet name="门概率图" sheetId="4" r:id="rId4"/>
     <sheet name="方向图" sheetId="5" r:id="rId5"/>
     <sheet name="置信区间验证" sheetId="6" r:id="rId6"/>
+    <sheet name="结论-门" sheetId="7" r:id="rId7"/>
+    <sheet name="结论-方向" sheetId="8" r:id="rId8"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="79">
   <si>
     <t>ID</t>
   </si>
@@ -135,6 +137,47 @@
     <t>Dir_combined_std(%)</t>
   </si>
   <si>
+    <t xml:space="preserve">计算说明（本节列出脚本中用于计算与检验的公式与步骤，便于复现）：
+1) 概率估计
+   - 观测计数 A_i 为某类别的观测次数，总试验次数为 N（或在两类比较中为 m = A + B）。
+   - 类别的估计概率： p_hat = A / N （若只比较两类，则条件概率 p_hat = A / m）。
+2) Wilson 置信区间（用于单个类别概率的置信区间，双侧）
+   - 给定显著性水平 alpha（双侧），先计算 z = Phi^{-1}(1 - alpha/2)。
+   - 设 p_hat = A / N，
+     denom = 1 + z^2 / N
+     center = p_hat + z^2 / (2N)
+     rad = z * sqrt( p_hat*(1-p_hat)/N + z^2/(4N^2) )
+     下界 lower = (center - rad) / denom
+     上界 upper = (center + rad) / denom
+   - 区间被截断到 [0,1]。
+3) 两类显著性比较（用于判断 A &gt; B）
+   - 只看落在 A 或 B 的样本，令 m = A + B。
+   - 在原假设 H0: p_A = p_B（条件下 p = 0.5）下，A ~ Binomial(m, 0.5)。
+   - 使用精确二项检验（binomtest）做单侧检验：H1: p_A &gt; 0.5（即 A 的概率大于 B）。
+   - 得到单侧 p_value（脚本中称为原始 p_value）。
+4) 多重比较校正（组内 Bonferroni）
+   - 在同一组（例如门组或某方向子组）内做所有两两比较，若组内共有 T 个两两比较，
+     则每次检验的显著性阈值设为 alpha_per_test = overall_alpha / T（overall_alpha 默认为 0.05）。
+   - 仅当单侧 p_value &lt;= alpha_per_test 时，记录显著结论 A&gt;B（或 B&gt;A）。
+5) 差值与效应量
+   - 在两类比较中，观测差值定义为 diff = pA - pB，其中 pA = A / m, pB = B / m。
+   - diff 用于衡量实际效应大小；p_value 用于衡量统计显著性，两者需结合解读。
+6) 方向比较限制（脚本实现细节）
+   - 方向分为两组：直角组 = {Left, Up, Right, Down}；斜角组 = {Up-Left, Up-Right, Down-Right, Down-Left}。
+   - 仅在组内做两两比较，不跨组比较。
+7) 概率统计表（概率统计页）
+   - 每个类别的概率由原始计数除以 Total 得到：Door_X = Door_X_count / Total；Dir_Y = Dir_Y_count / Total。
+8) 均值/方差/标准差（均值偏差页）
+   - 组内均值（例如门组）: mean = mean(p_i)（忽略为 0 的项以避免 Total=0 的影响）。
+   - 以百分比形式计算偏差列： (p_i - mean) * 100。
+   - 方差（%^2）使用样本方差（ddof=0），标准差为方差的平方根（%）。
+注：脚本中所有概率与检验均基于观测计数，若 Total=0 或 A+B=0 的情况会被跳过或以 0 处理。
+本页（置信区间验证）中特别说明：
+ - Doors 使用的 alpha = 0.05 / 4（Bonferroni 分配用于单个类别的 Wilson 区间计算）。
+ - Directions 使用的 alpha = 0.05 / 8（Bonferroni 分配用于单个方向的 Wilson 区间计算）。
+</t>
+  </si>
+  <si>
     <t>实验 3c - Doors</t>
   </si>
   <si>
@@ -190,6 +233,147 @@
   </si>
   <si>
     <t>实验 3d - Directions</t>
+  </si>
+  <si>
+    <t xml:space="preserve">计算说明（本节列出脚本中用于计算与检验的公式与步骤，便于复现）：
+1) 概率估计
+   - 观测计数 A_i 为某类别的观测次数，总试验次数为 N（或在两类比较中为 m = A + B）。
+   - 类别的估计概率： p_hat = A / N （若只比较两类，则条件概率 p_hat = A / m）。
+2) Wilson 置信区间（用于单个类别概率的置信区间，双侧）
+   - 给定显著性水平 alpha（双侧），先计算 z = Phi^{-1}(1 - alpha/2)。
+   - 设 p_hat = A / N，
+     denom = 1 + z^2 / N
+     center = p_hat + z^2 / (2N)
+     rad = z * sqrt( p_hat*(1-p_hat)/N + z^2/(4N^2) )
+     下界 lower = (center - rad) / denom
+     上界 upper = (center + rad) / denom
+   - 区间被截断到 [0,1]。
+3) 两类显著性比较（用于判断 A &gt; B）
+   - 只看落在 A 或 B 的样本，令 m = A + B。
+   - 在原假设 H0: p_A = p_B（条件下 p = 0.5）下，A ~ Binomial(m, 0.5)。
+   - 使用精确二项检验（binomtest）做单侧检验：H1: p_A &gt; 0.5（即 A 的概率大于 B）。
+   - 得到单侧 p_value（脚本中称为原始 p_value）。
+4) 多重比较校正（组内 Bonferroni）
+   - 在同一组（例如门组或某方向子组）内做所有两两比较，若组内共有 T 个两两比较，
+     则每次检验的显著性阈值设为 alpha_per_test = overall_alpha / T（overall_alpha 默认为 0.05）。
+   - 仅当单侧 p_value &lt;= alpha_per_test 时，记录显著结论 A&gt;B（或 B&gt;A）。
+5) 差值与效应量
+   - 在两类比较中，观测差值定义为 diff = pA - pB，其中 pA = A / m, pB = B / m。
+   - diff 用于衡量实际效应大小；p_value 用于衡量统计显著性，两者需结合解读。
+6) 方向比较限制（脚本实现细节）
+   - 方向分为两组：直角组 = {Left, Up, Right, Down}；斜角组 = {Up-Left, Up-Right, Down-Right, Down-Left}。
+   - 仅在组内做两两比较，不跨组比较。
+7) 概率统计表（概率统计页）
+   - 每个类别的概率由原始计数除以 Total 得到：Door_X = Door_X_count / Total；Dir_Y = Dir_Y_count / Total。
+8) 均值/方差/标准差（均值偏差页）
+   - 组内均值（例如门组）: mean = mean(p_i)（忽略为 0 的项以避免 Total=0 的影响）。
+   - 以百分比形式计算偏差列： (p_i - mean) * 100。
+   - 方差（%^2）使用样本方差（ddof=0），标准差为方差的平方根（%）。
+注：脚本中所有概率与检验均基于观测计数，若 Total=0 或 A+B=0 的情况会被跳过或以 0 处理。
+本页（结论-门）说明：
+ - 对每个实验，门组内共有 4 个类别，共 T = C(4,2) = 6 个两两比较。
+ - 使用 overall_alpha = 0.05，组内 Bonferroni 校正后 alpha_per_test = 0.05 / 6 ≈ 0.008333。
+ - 每条结论为单侧精确二项检验显著的比较，格式： 实验编号 | 结论 | p_value | A_count | B_count | 差值(pA-pB)。
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">计算说明（本节列出脚本中用于计算与检验的公式与步骤，便于复现）：
+1) 概率估计
+   - 观测计数 A_i 为某类别的观测次数，总试验次数为 N（或在两类比较中为 m = A + B）。
+   - 类别的估计概率： p_hat = A / N （若只比较两类，则条件概率 p_hat = A / m）。
+2) Wilson 置信区间（用于单个类别概率的置信区间，双侧）
+   - 给定显著性水平 alpha（双侧），先计算 z = Phi^{-1}(1 - alpha/2)。
+   - 设 p_hat = A / N，
+     denom = 1 + z^2 / N
+     center = p_hat + z^2 / (2N)
+     rad = z * sqrt( p_hat*(1-p_hat)/N + z^2/(4N^2) )
+     下界 lower = (center - rad) / denom
+     上界 upper = (center + rad) / denom
+   - 区间被截断到 [0,1]。
+3) 两类显著性比较（用于判断 A &gt; B）
+   - 只看落在 A 或 B 的样本，令 m = A + B。
+   - 在原假设 H0: p_A = p_B（条件下 p = 0.5）下，A ~ Binomial(m, 0.5)。
+   - 使用精确二项检验（binomtest）做单侧检验：H1: p_A &gt; 0.5（即 A 的概率大于 B）。
+   - 得到单侧 p_value（脚本中称为原始 p_value）。
+4) 多重比较校正（组内 Bonferroni）
+   - 在同一组（例如门组或某方向子组）内做所有两两比较，若组内共有 T 个两两比较，
+     则每次检验的显著性阈值设为 alpha_per_test = overall_alpha / T（overall_alpha 默认为 0.05）。
+   - 仅当单侧 p_value &lt;= alpha_per_test 时，记录显著结论 A&gt;B（或 B&gt;A）。
+5) 差值与效应量
+   - 在两类比较中，观测差值定义为 diff = pA - pB，其中 pA = A / m, pB = B / m。
+   - diff 用于衡量实际效应大小；p_value 用于衡量统计显著性，两者需结合解读。
+6) 方向比较限制（脚本实现细节）
+   - 方向分为两组：直角组 = {Left, Up, Right, Down}；斜角组 = {Up-Left, Up-Right, Down-Right, Down-Left}。
+   - 仅在组内做两两比较，不跨组比较。
+7) 概率统计表（概率统计页）
+   - 每个类别的概率由原始计数除以 Total 得到：Door_X = Door_X_count / Total；Dir_Y = Dir_Y_count / Total。
+8) 均值/方差/标准差（均值偏差页）
+   - 组内均值（例如门组）: mean = mean(p_i)（忽略为 0 的项以避免 Total=0 的影响）。
+   - 以百分比形式计算偏差列： (p_i - mean) * 100。
+   - 方差（%^2）使用样本方差（ddof=0），标准差为方差的平方根（%）。
+注：脚本中所有概率与检验均基于观测计数，若 Total=0 或 A+B=0 的情况会被跳过或以 0 处理。
+本页（结论-方向）说明：
+ - 方向被分为两组：直角组（4 个）与斜角组（4 个），每组内分别做两两比较。
+ - 每组内比较数量均为 T = C(4,2) = 6，组内 Bonferroni 校正 alpha_per_test = 0.05 / 6。
+ - 仅在组内记录显著结论，格式同上： 实验编号 | 结论 | p_value | A_count | B_count | 差值(pA-pB)。
+</t>
+  </si>
+  <si>
+    <t>实验编号</t>
+  </si>
+  <si>
+    <t>结论</t>
+  </si>
+  <si>
+    <t>p_value</t>
+  </si>
+  <si>
+    <t>A_count</t>
+  </si>
+  <si>
+    <t>B_count</t>
+  </si>
+  <si>
+    <t>差值(pA-pB)</t>
+  </si>
+  <si>
+    <t>Left&gt;Up</t>
+  </si>
+  <si>
+    <t>Down&gt;Left</t>
+  </si>
+  <si>
+    <t>Right&gt;Up</t>
+  </si>
+  <si>
+    <t>Down&gt;Up</t>
+  </si>
+  <si>
+    <t>Down&gt;Right</t>
+  </si>
+  <si>
+    <t>Up-Left&gt;Down-Right</t>
+  </si>
+  <si>
+    <t>Up-Left&gt;Down-Left</t>
+  </si>
+  <si>
+    <t>Up-Right&gt;Down-Right</t>
+  </si>
+  <si>
+    <t>Up-Right&gt;Down-Left</t>
+  </si>
+  <si>
+    <t>Down-Right&gt;Up-Left</t>
+  </si>
+  <si>
+    <t>Down-Left&gt;Up-Left</t>
+  </si>
+  <si>
+    <t>Down-Right&gt;Up-Right</t>
+  </si>
+  <si>
+    <t>Down-Left&gt;Up-Right</t>
   </si>
 </sst>
 </file>
@@ -278,7 +462,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -287,6 +471,9 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
@@ -1300,7 +1487,7 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G36"/>
+  <dimension ref="A1:G88"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1311,671 +1498,2586 @@
     <col min="3" max="7" width="14.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:6" ht="18" customHeight="1">
       <c r="A1" s="6" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="2" spans="1:7">
-      <c r="A2" s="6" t="s">
+      <c r="B1" s="6"/>
+      <c r="C1" s="6"/>
+      <c r="D1" s="6"/>
+      <c r="E1" s="6"/>
+      <c r="F1" s="6"/>
+    </row>
+    <row r="2" spans="1:6" ht="18" customHeight="1">
+      <c r="A2" s="6"/>
+      <c r="B2" s="6"/>
+      <c r="C2" s="6"/>
+      <c r="D2" s="6"/>
+      <c r="E2" s="6"/>
+      <c r="F2" s="6"/>
+    </row>
+    <row r="3" spans="1:6" ht="18" customHeight="1">
+      <c r="A3" s="6"/>
+      <c r="B3" s="6"/>
+      <c r="C3" s="6"/>
+      <c r="D3" s="6"/>
+      <c r="E3" s="6"/>
+      <c r="F3" s="6"/>
+    </row>
+    <row r="4" spans="1:6" ht="18" customHeight="1">
+      <c r="A4" s="6"/>
+      <c r="B4" s="6"/>
+      <c r="C4" s="6"/>
+      <c r="D4" s="6"/>
+      <c r="E4" s="6"/>
+      <c r="F4" s="6"/>
+    </row>
+    <row r="5" spans="1:6" ht="18" customHeight="1">
+      <c r="A5" s="6"/>
+      <c r="B5" s="6"/>
+      <c r="C5" s="6"/>
+      <c r="D5" s="6"/>
+      <c r="E5" s="6"/>
+      <c r="F5" s="6"/>
+    </row>
+    <row r="6" spans="1:6" ht="18" customHeight="1">
+      <c r="A6" s="6"/>
+      <c r="B6" s="6"/>
+      <c r="C6" s="6"/>
+      <c r="D6" s="6"/>
+      <c r="E6" s="6"/>
+      <c r="F6" s="6"/>
+    </row>
+    <row r="7" spans="1:6" ht="18" customHeight="1">
+      <c r="A7" s="6"/>
+      <c r="B7" s="6"/>
+      <c r="C7" s="6"/>
+      <c r="D7" s="6"/>
+      <c r="E7" s="6"/>
+      <c r="F7" s="6"/>
+    </row>
+    <row r="8" spans="1:6" ht="18" customHeight="1">
+      <c r="A8" s="6"/>
+      <c r="B8" s="6"/>
+      <c r="C8" s="6"/>
+      <c r="D8" s="6"/>
+      <c r="E8" s="6"/>
+      <c r="F8" s="6"/>
+    </row>
+    <row r="9" spans="1:6" ht="18" customHeight="1">
+      <c r="A9" s="6"/>
+      <c r="B9" s="6"/>
+      <c r="C9" s="6"/>
+      <c r="D9" s="6"/>
+      <c r="E9" s="6"/>
+      <c r="F9" s="6"/>
+    </row>
+    <row r="10" spans="1:6" ht="18" customHeight="1">
+      <c r="A10" s="6"/>
+      <c r="B10" s="6"/>
+      <c r="C10" s="6"/>
+      <c r="D10" s="6"/>
+      <c r="E10" s="6"/>
+      <c r="F10" s="6"/>
+    </row>
+    <row r="11" spans="1:6" ht="18" customHeight="1">
+      <c r="A11" s="6"/>
+      <c r="B11" s="6"/>
+      <c r="C11" s="6"/>
+      <c r="D11" s="6"/>
+      <c r="E11" s="6"/>
+      <c r="F11" s="6"/>
+    </row>
+    <row r="12" spans="1:6" ht="18" customHeight="1">
+      <c r="A12" s="6"/>
+      <c r="B12" s="6"/>
+      <c r="C12" s="6"/>
+      <c r="D12" s="6"/>
+      <c r="E12" s="6"/>
+      <c r="F12" s="6"/>
+    </row>
+    <row r="13" spans="1:6" ht="18" customHeight="1">
+      <c r="A13" s="6"/>
+      <c r="B13" s="6"/>
+      <c r="C13" s="6"/>
+      <c r="D13" s="6"/>
+      <c r="E13" s="6"/>
+      <c r="F13" s="6"/>
+    </row>
+    <row r="14" spans="1:6" ht="18" customHeight="1">
+      <c r="A14" s="6"/>
+      <c r="B14" s="6"/>
+      <c r="C14" s="6"/>
+      <c r="D14" s="6"/>
+      <c r="E14" s="6"/>
+      <c r="F14" s="6"/>
+    </row>
+    <row r="15" spans="1:6" ht="18" customHeight="1">
+      <c r="A15" s="6"/>
+      <c r="B15" s="6"/>
+      <c r="C15" s="6"/>
+      <c r="D15" s="6"/>
+      <c r="E15" s="6"/>
+      <c r="F15" s="6"/>
+    </row>
+    <row r="16" spans="1:6" ht="18" customHeight="1">
+      <c r="A16" s="6"/>
+      <c r="B16" s="6"/>
+      <c r="C16" s="6"/>
+      <c r="D16" s="6"/>
+      <c r="E16" s="6"/>
+      <c r="F16" s="6"/>
+    </row>
+    <row r="17" spans="1:6" ht="18" customHeight="1">
+      <c r="A17" s="6"/>
+      <c r="B17" s="6"/>
+      <c r="C17" s="6"/>
+      <c r="D17" s="6"/>
+      <c r="E17" s="6"/>
+      <c r="F17" s="6"/>
+    </row>
+    <row r="18" spans="1:6" ht="18" customHeight="1">
+      <c r="A18" s="6"/>
+      <c r="B18" s="6"/>
+      <c r="C18" s="6"/>
+      <c r="D18" s="6"/>
+      <c r="E18" s="6"/>
+      <c r="F18" s="6"/>
+    </row>
+    <row r="19" spans="1:6" ht="18" customHeight="1">
+      <c r="A19" s="6"/>
+      <c r="B19" s="6"/>
+      <c r="C19" s="6"/>
+      <c r="D19" s="6"/>
+      <c r="E19" s="6"/>
+      <c r="F19" s="6"/>
+    </row>
+    <row r="20" spans="1:6" ht="18" customHeight="1">
+      <c r="A20" s="6"/>
+      <c r="B20" s="6"/>
+      <c r="C20" s="6"/>
+      <c r="D20" s="6"/>
+      <c r="E20" s="6"/>
+      <c r="F20" s="6"/>
+    </row>
+    <row r="21" spans="1:6" ht="18" customHeight="1">
+      <c r="A21" s="6"/>
+      <c r="B21" s="6"/>
+      <c r="C21" s="6"/>
+      <c r="D21" s="6"/>
+      <c r="E21" s="6"/>
+      <c r="F21" s="6"/>
+    </row>
+    <row r="22" spans="1:6" ht="18" customHeight="1">
+      <c r="A22" s="6"/>
+      <c r="B22" s="6"/>
+      <c r="C22" s="6"/>
+      <c r="D22" s="6"/>
+      <c r="E22" s="6"/>
+      <c r="F22" s="6"/>
+    </row>
+    <row r="23" spans="1:6" ht="18" customHeight="1">
+      <c r="A23" s="6"/>
+      <c r="B23" s="6"/>
+      <c r="C23" s="6"/>
+      <c r="D23" s="6"/>
+      <c r="E23" s="6"/>
+      <c r="F23" s="6"/>
+    </row>
+    <row r="24" spans="1:6" ht="18" customHeight="1">
+      <c r="A24" s="6"/>
+      <c r="B24" s="6"/>
+      <c r="C24" s="6"/>
+      <c r="D24" s="6"/>
+      <c r="E24" s="6"/>
+      <c r="F24" s="6"/>
+    </row>
+    <row r="25" spans="1:6" ht="18" customHeight="1">
+      <c r="A25" s="6"/>
+      <c r="B25" s="6"/>
+      <c r="C25" s="6"/>
+      <c r="D25" s="6"/>
+      <c r="E25" s="6"/>
+      <c r="F25" s="6"/>
+    </row>
+    <row r="26" spans="1:6" ht="18" customHeight="1">
+      <c r="A26" s="6"/>
+      <c r="B26" s="6"/>
+      <c r="C26" s="6"/>
+      <c r="D26" s="6"/>
+      <c r="E26" s="6"/>
+      <c r="F26" s="6"/>
+    </row>
+    <row r="27" spans="1:6" ht="18" customHeight="1">
+      <c r="A27" s="6"/>
+      <c r="B27" s="6"/>
+      <c r="C27" s="6"/>
+      <c r="D27" s="6"/>
+      <c r="E27" s="6"/>
+      <c r="F27" s="6"/>
+    </row>
+    <row r="28" spans="1:6" ht="18" customHeight="1">
+      <c r="A28" s="6"/>
+      <c r="B28" s="6"/>
+      <c r="C28" s="6"/>
+      <c r="D28" s="6"/>
+      <c r="E28" s="6"/>
+      <c r="F28" s="6"/>
+    </row>
+    <row r="29" spans="1:6" ht="18" customHeight="1">
+      <c r="A29" s="6"/>
+      <c r="B29" s="6"/>
+      <c r="C29" s="6"/>
+      <c r="D29" s="6"/>
+      <c r="E29" s="6"/>
+      <c r="F29" s="6"/>
+    </row>
+    <row r="30" spans="1:6" ht="18" customHeight="1">
+      <c r="A30" s="6"/>
+      <c r="B30" s="6"/>
+      <c r="C30" s="6"/>
+      <c r="D30" s="6"/>
+      <c r="E30" s="6"/>
+      <c r="F30" s="6"/>
+    </row>
+    <row r="31" spans="1:6" ht="18" customHeight="1">
+      <c r="A31" s="6"/>
+      <c r="B31" s="6"/>
+      <c r="C31" s="6"/>
+      <c r="D31" s="6"/>
+      <c r="E31" s="6"/>
+      <c r="F31" s="6"/>
+    </row>
+    <row r="32" spans="1:6" ht="18" customHeight="1">
+      <c r="A32" s="6"/>
+      <c r="B32" s="6"/>
+      <c r="C32" s="6"/>
+      <c r="D32" s="6"/>
+      <c r="E32" s="6"/>
+      <c r="F32" s="6"/>
+    </row>
+    <row r="33" spans="1:6" ht="18" customHeight="1">
+      <c r="A33" s="6"/>
+      <c r="B33" s="6"/>
+      <c r="C33" s="6"/>
+      <c r="D33" s="6"/>
+      <c r="E33" s="6"/>
+      <c r="F33" s="6"/>
+    </row>
+    <row r="34" spans="1:6" ht="18" customHeight="1">
+      <c r="A34" s="6"/>
+      <c r="B34" s="6"/>
+      <c r="C34" s="6"/>
+      <c r="D34" s="6"/>
+      <c r="E34" s="6"/>
+      <c r="F34" s="6"/>
+    </row>
+    <row r="35" spans="1:6" ht="18" customHeight="1">
+      <c r="A35" s="6"/>
+      <c r="B35" s="6"/>
+      <c r="C35" s="6"/>
+      <c r="D35" s="6"/>
+      <c r="E35" s="6"/>
+      <c r="F35" s="6"/>
+    </row>
+    <row r="36" spans="1:6" ht="18" customHeight="1">
+      <c r="A36" s="6"/>
+      <c r="B36" s="6"/>
+      <c r="C36" s="6"/>
+      <c r="D36" s="6"/>
+      <c r="E36" s="6"/>
+      <c r="F36" s="6"/>
+    </row>
+    <row r="37" spans="1:6" ht="18" customHeight="1">
+      <c r="A37" s="6"/>
+      <c r="B37" s="6"/>
+      <c r="C37" s="6"/>
+      <c r="D37" s="6"/>
+      <c r="E37" s="6"/>
+      <c r="F37" s="6"/>
+    </row>
+    <row r="38" spans="1:6" ht="18" customHeight="1">
+      <c r="A38" s="6"/>
+      <c r="B38" s="6"/>
+      <c r="C38" s="6"/>
+      <c r="D38" s="6"/>
+      <c r="E38" s="6"/>
+      <c r="F38" s="6"/>
+    </row>
+    <row r="39" spans="1:6" ht="18" customHeight="1">
+      <c r="A39" s="6"/>
+      <c r="B39" s="6"/>
+      <c r="C39" s="6"/>
+      <c r="D39" s="6"/>
+      <c r="E39" s="6"/>
+      <c r="F39" s="6"/>
+    </row>
+    <row r="40" spans="1:6" ht="18" customHeight="1">
+      <c r="A40" s="6"/>
+      <c r="B40" s="6"/>
+      <c r="C40" s="6"/>
+      <c r="D40" s="6"/>
+      <c r="E40" s="6"/>
+      <c r="F40" s="6"/>
+    </row>
+    <row r="41" spans="1:6" ht="18" customHeight="1">
+      <c r="A41" s="6"/>
+      <c r="B41" s="6"/>
+      <c r="C41" s="6"/>
+      <c r="D41" s="6"/>
+      <c r="E41" s="6"/>
+      <c r="F41" s="6"/>
+    </row>
+    <row r="42" spans="1:6" ht="18" customHeight="1">
+      <c r="A42" s="6"/>
+      <c r="B42" s="6"/>
+      <c r="C42" s="6"/>
+      <c r="D42" s="6"/>
+      <c r="E42" s="6"/>
+      <c r="F42" s="6"/>
+    </row>
+    <row r="43" spans="1:6" ht="18" customHeight="1">
+      <c r="A43" s="6"/>
+      <c r="B43" s="6"/>
+      <c r="C43" s="6"/>
+      <c r="D43" s="6"/>
+      <c r="E43" s="6"/>
+      <c r="F43" s="6"/>
+    </row>
+    <row r="44" spans="1:6" ht="18" customHeight="1">
+      <c r="A44" s="6"/>
+      <c r="B44" s="6"/>
+      <c r="C44" s="6"/>
+      <c r="D44" s="6"/>
+      <c r="E44" s="6"/>
+      <c r="F44" s="6"/>
+    </row>
+    <row r="45" spans="1:6" ht="18" customHeight="1">
+      <c r="A45" s="6"/>
+      <c r="B45" s="6"/>
+      <c r="C45" s="6"/>
+      <c r="D45" s="6"/>
+      <c r="E45" s="6"/>
+      <c r="F45" s="6"/>
+    </row>
+    <row r="46" spans="1:6" ht="18" customHeight="1">
+      <c r="A46" s="6"/>
+      <c r="B46" s="6"/>
+      <c r="C46" s="6"/>
+      <c r="D46" s="6"/>
+      <c r="E46" s="6"/>
+      <c r="F46" s="6"/>
+    </row>
+    <row r="47" spans="1:6" ht="18" customHeight="1">
+      <c r="A47" s="6"/>
+      <c r="B47" s="6"/>
+      <c r="C47" s="6"/>
+      <c r="D47" s="6"/>
+      <c r="E47" s="6"/>
+      <c r="F47" s="6"/>
+    </row>
+    <row r="48" spans="1:6" ht="18" customHeight="1">
+      <c r="A48" s="6"/>
+      <c r="B48" s="6"/>
+      <c r="C48" s="6"/>
+      <c r="D48" s="6"/>
+      <c r="E48" s="6"/>
+      <c r="F48" s="6"/>
+    </row>
+    <row r="49" spans="1:7" ht="18" customHeight="1">
+      <c r="A49" s="6"/>
+      <c r="B49" s="6"/>
+      <c r="C49" s="6"/>
+      <c r="D49" s="6"/>
+      <c r="E49" s="6"/>
+      <c r="F49" s="6"/>
+    </row>
+    <row r="50" spans="1:7" ht="18" customHeight="1">
+      <c r="A50" s="6"/>
+      <c r="B50" s="6"/>
+      <c r="C50" s="6"/>
+      <c r="D50" s="6"/>
+      <c r="E50" s="6"/>
+      <c r="F50" s="6"/>
+    </row>
+    <row r="51" spans="1:7" ht="18" customHeight="1">
+      <c r="A51" s="6"/>
+      <c r="B51" s="6"/>
+      <c r="C51" s="6"/>
+      <c r="D51" s="6"/>
+      <c r="E51" s="6"/>
+      <c r="F51" s="6"/>
+    </row>
+    <row r="52" spans="1:7" ht="18" customHeight="1">
+      <c r="A52" s="6"/>
+      <c r="B52" s="6"/>
+      <c r="C52" s="6"/>
+      <c r="D52" s="6"/>
+      <c r="E52" s="6"/>
+      <c r="F52" s="6"/>
+    </row>
+    <row r="53" spans="1:7">
+      <c r="A53" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="B2" s="6" t="s">
+    </row>
+    <row r="54" spans="1:7">
+      <c r="A54" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="B54" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="C54" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="E2" s="6" t="s">
+      <c r="D54" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="F2" s="6" t="s">
+      <c r="E54" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="G2" s="6" t="s">
+      <c r="F54" s="7" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="3" spans="1:7">
-      <c r="A3" t="s">
+      <c r="G54" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="B3">
+    </row>
+    <row r="55" spans="1:7">
+      <c r="A55" t="s">
+        <v>47</v>
+      </c>
+      <c r="B55">
         <v>9846</v>
       </c>
-      <c r="C3">
+      <c r="C55">
         <v>0.318527</v>
       </c>
-      <c r="D3">
+      <c r="D55">
         <v>0.311946</v>
       </c>
-      <c r="E3">
+      <c r="E55">
         <v>0.325182</v>
       </c>
-      <c r="F3">
+      <c r="F55">
         <v>0.006655</v>
       </c>
-      <c r="G3" t="b">
+      <c r="G55" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
-      <c r="A4" t="s">
+    <row r="56" spans="1:7">
+      <c r="A56" t="s">
+        <v>48</v>
+      </c>
+      <c r="B56">
+        <v>5674</v>
+      </c>
+      <c r="C56">
+        <v>0.183559</v>
+      </c>
+      <c r="D56">
+        <v>0.178124</v>
+      </c>
+      <c r="E56">
+        <v>0.189123</v>
+      </c>
+      <c r="F56">
+        <v>0.005563</v>
+      </c>
+      <c r="G56" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7">
+      <c r="A57" t="s">
+        <v>49</v>
+      </c>
+      <c r="B57">
+        <v>9898</v>
+      </c>
+      <c r="C57">
+        <v>0.32021</v>
+      </c>
+      <c r="D57">
+        <v>0.313618</v>
+      </c>
+      <c r="E57">
+        <v>0.326873</v>
+      </c>
+      <c r="F57">
+        <v>0.006664</v>
+      </c>
+      <c r="G57" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7">
+      <c r="A58" t="s">
+        <v>50</v>
+      </c>
+      <c r="B58">
+        <v>11167</v>
+      </c>
+      <c r="C58">
+        <v>0.361263</v>
+      </c>
+      <c r="D58">
+        <v>0.354467</v>
+      </c>
+      <c r="E58">
+        <v>0.368115</v>
+      </c>
+      <c r="F58">
+        <v>0.006852</v>
+      </c>
+      <c r="G58" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7">
+      <c r="A60" s="7" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7">
+      <c r="A61" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="B61" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="C61" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="D61" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="E61" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="F61" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="G61" s="7" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7">
+      <c r="A62" t="s">
         <v>47</v>
       </c>
-      <c r="B4">
+      <c r="B62">
+        <v>3638</v>
+      </c>
+      <c r="C62">
+        <v>0.117693</v>
+      </c>
+      <c r="D62">
+        <v>0.112773</v>
+      </c>
+      <c r="E62">
+        <v>0.122797</v>
+      </c>
+      <c r="F62">
+        <v>0.005104</v>
+      </c>
+      <c r="G62" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7">
+      <c r="A63" t="s">
+        <v>52</v>
+      </c>
+      <c r="B63">
+        <v>4614</v>
+      </c>
+      <c r="C63">
+        <v>0.149267</v>
+      </c>
+      <c r="D63">
+        <v>0.14381</v>
+      </c>
+      <c r="E63">
+        <v>0.154894</v>
+      </c>
+      <c r="F63">
+        <v>0.005627</v>
+      </c>
+      <c r="G63" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7">
+      <c r="A64" t="s">
+        <v>48</v>
+      </c>
+      <c r="B64">
+        <v>1881</v>
+      </c>
+      <c r="C64">
+        <v>0.060852</v>
+      </c>
+      <c r="D64">
+        <v>0.057239</v>
+      </c>
+      <c r="E64">
+        <v>0.064677</v>
+      </c>
+      <c r="F64">
+        <v>0.003825</v>
+      </c>
+      <c r="G64" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7">
+      <c r="A65" t="s">
+        <v>53</v>
+      </c>
+      <c r="B65">
+        <v>4495</v>
+      </c>
+      <c r="C65">
+        <v>0.145417</v>
+      </c>
+      <c r="D65">
+        <v>0.140021</v>
+      </c>
+      <c r="E65">
+        <v>0.150986</v>
+      </c>
+      <c r="F65">
+        <v>0.005568</v>
+      </c>
+      <c r="G65" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7">
+      <c r="A66" t="s">
+        <v>49</v>
+      </c>
+      <c r="B66">
+        <v>3612</v>
+      </c>
+      <c r="C66">
+        <v>0.116852</v>
+      </c>
+      <c r="D66">
+        <v>0.111948</v>
+      </c>
+      <c r="E66">
+        <v>0.121941</v>
+      </c>
+      <c r="F66">
+        <v>0.005089</v>
+      </c>
+      <c r="G66" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7">
+      <c r="A67" t="s">
+        <v>54</v>
+      </c>
+      <c r="B67">
+        <v>3885</v>
+      </c>
+      <c r="C67">
+        <v>0.125683</v>
+      </c>
+      <c r="D67">
+        <v>0.120618</v>
+      </c>
+      <c r="E67">
+        <v>0.13093</v>
+      </c>
+      <c r="F67">
+        <v>0.005246</v>
+      </c>
+      <c r="G67" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7">
+      <c r="A68" t="s">
+        <v>50</v>
+      </c>
+      <c r="B68">
+        <v>4761</v>
+      </c>
+      <c r="C68">
+        <v>0.154023</v>
+      </c>
+      <c r="D68">
+        <v>0.148493</v>
+      </c>
+      <c r="E68">
+        <v>0.15972</v>
+      </c>
+      <c r="F68">
+        <v>0.005698</v>
+      </c>
+      <c r="G68" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7">
+      <c r="A69" t="s">
+        <v>55</v>
+      </c>
+      <c r="B69">
+        <v>4025</v>
+      </c>
+      <c r="C69">
+        <v>0.130213</v>
+      </c>
+      <c r="D69">
+        <v>0.125068</v>
+      </c>
+      <c r="E69">
+        <v>0.135536</v>
+      </c>
+      <c r="F69">
+        <v>0.005324</v>
+      </c>
+      <c r="G69" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7">
+      <c r="A72" s="7" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7">
+      <c r="A73" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="B73" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="C73" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="D73" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="E73" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="F73" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="G73" s="7" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7">
+      <c r="A74" t="s">
+        <v>47</v>
+      </c>
+      <c r="B74">
+        <v>10166</v>
+      </c>
+      <c r="C74">
+        <v>0.32888</v>
+      </c>
+      <c r="D74">
+        <v>0.322241</v>
+      </c>
+      <c r="E74">
+        <v>0.335588</v>
+      </c>
+      <c r="F74">
+        <v>0.006708</v>
+      </c>
+      <c r="G74" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7">
+      <c r="A75" t="s">
+        <v>48</v>
+      </c>
+      <c r="B75">
+        <v>5386</v>
+      </c>
+      <c r="C75">
+        <v>0.174242</v>
+      </c>
+      <c r="D75">
+        <v>0.168919</v>
+      </c>
+      <c r="E75">
+        <v>0.179697</v>
+      </c>
+      <c r="F75">
+        <v>0.005454</v>
+      </c>
+      <c r="G75" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7">
+      <c r="A76" t="s">
+        <v>49</v>
+      </c>
+      <c r="B76">
+        <v>10108</v>
+      </c>
+      <c r="C76">
+        <v>0.327003</v>
+      </c>
+      <c r="D76">
+        <v>0.320374</v>
+      </c>
+      <c r="E76">
+        <v>0.333702</v>
+      </c>
+      <c r="F76">
+        <v>0.006699</v>
+      </c>
+      <c r="G76" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7">
+      <c r="A77" t="s">
+        <v>50</v>
+      </c>
+      <c r="B77">
+        <v>11238</v>
+      </c>
+      <c r="C77">
+        <v>0.36356</v>
+      </c>
+      <c r="D77">
+        <v>0.356754</v>
+      </c>
+      <c r="E77">
+        <v>0.37042</v>
+      </c>
+      <c r="F77">
+        <v>0.006861</v>
+      </c>
+      <c r="G77" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7">
+      <c r="A79" s="7" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7">
+      <c r="A80" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="B80" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="C80" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="D80" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="E80" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="F80" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="G80" s="7" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7">
+      <c r="A81" t="s">
+        <v>47</v>
+      </c>
+      <c r="B81">
+        <v>4303</v>
+      </c>
+      <c r="C81">
+        <v>0.139206</v>
+      </c>
+      <c r="D81">
+        <v>0.13391</v>
+      </c>
+      <c r="E81">
+        <v>0.144677</v>
+      </c>
+      <c r="F81">
+        <v>0.005471</v>
+      </c>
+      <c r="G81" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7">
+      <c r="A82" t="s">
+        <v>52</v>
+      </c>
+      <c r="B82">
+        <v>3538</v>
+      </c>
+      <c r="C82">
+        <v>0.114458</v>
+      </c>
+      <c r="D82">
+        <v>0.109599</v>
+      </c>
+      <c r="E82">
+        <v>0.119503</v>
+      </c>
+      <c r="F82">
+        <v>0.005045</v>
+      </c>
+      <c r="G82" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7">
+      <c r="A83" t="s">
+        <v>48</v>
+      </c>
+      <c r="B83">
+        <v>1527</v>
+      </c>
+      <c r="C83">
+        <v>0.0494</v>
+      </c>
+      <c r="D83">
+        <v>0.046137</v>
+      </c>
+      <c r="E83">
+        <v>0.05288</v>
+      </c>
+      <c r="F83">
+        <v>0.003481</v>
+      </c>
+      <c r="G83" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7">
+      <c r="A84" t="s">
+        <v>53</v>
+      </c>
+      <c r="B84">
+        <v>3692</v>
+      </c>
+      <c r="C84">
+        <v>0.11944</v>
+      </c>
+      <c r="D84">
+        <v>0.114488</v>
+      </c>
+      <c r="E84">
+        <v>0.124576</v>
+      </c>
+      <c r="F84">
+        <v>0.005136</v>
+      </c>
+      <c r="G84" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7">
+      <c r="A85" t="s">
+        <v>49</v>
+      </c>
+      <c r="B85">
+        <v>4291</v>
+      </c>
+      <c r="C85">
+        <v>0.138818</v>
+      </c>
+      <c r="D85">
+        <v>0.133528</v>
+      </c>
+      <c r="E85">
+        <v>0.144283</v>
+      </c>
+      <c r="F85">
+        <v>0.005465</v>
+      </c>
+      <c r="G85" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7">
+      <c r="A86" t="s">
+        <v>54</v>
+      </c>
+      <c r="B86">
+        <v>4407</v>
+      </c>
+      <c r="C86">
+        <v>0.142571</v>
+      </c>
+      <c r="D86">
+        <v>0.137219</v>
+      </c>
+      <c r="E86">
+        <v>0.148095</v>
+      </c>
+      <c r="F86">
+        <v>0.005524</v>
+      </c>
+      <c r="G86" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7">
+      <c r="A87" t="s">
+        <v>50</v>
+      </c>
+      <c r="B87">
+        <v>4665</v>
+      </c>
+      <c r="C87">
+        <v>0.150917</v>
+      </c>
+      <c r="D87">
+        <v>0.145434</v>
+      </c>
+      <c r="E87">
+        <v>0.156569</v>
+      </c>
+      <c r="F87">
+        <v>0.005652</v>
+      </c>
+      <c r="G87" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7">
+      <c r="A88" t="s">
+        <v>55</v>
+      </c>
+      <c r="B88">
+        <v>4488</v>
+      </c>
+      <c r="C88">
+        <v>0.145191</v>
+      </c>
+      <c r="D88">
+        <v>0.139798</v>
+      </c>
+      <c r="E88">
+        <v>0.150756</v>
+      </c>
+      <c r="F88">
+        <v>0.005565</v>
+      </c>
+      <c r="G88" t="b">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:F52"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:F64"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="14.7109375" customWidth="1"/>
+    <col min="2" max="2" width="18.7109375" customWidth="1"/>
+    <col min="3" max="6" width="12.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" ht="18" customHeight="1">
+      <c r="A1" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="B1" s="6"/>
+      <c r="C1" s="6"/>
+      <c r="D1" s="6"/>
+      <c r="E1" s="6"/>
+      <c r="F1" s="6"/>
+    </row>
+    <row r="2" spans="1:6" ht="18" customHeight="1">
+      <c r="A2" s="6"/>
+      <c r="B2" s="6"/>
+      <c r="C2" s="6"/>
+      <c r="D2" s="6"/>
+      <c r="E2" s="6"/>
+      <c r="F2" s="6"/>
+    </row>
+    <row r="3" spans="1:6" ht="18" customHeight="1">
+      <c r="A3" s="6"/>
+      <c r="B3" s="6"/>
+      <c r="C3" s="6"/>
+      <c r="D3" s="6"/>
+      <c r="E3" s="6"/>
+      <c r="F3" s="6"/>
+    </row>
+    <row r="4" spans="1:6" ht="18" customHeight="1">
+      <c r="A4" s="6"/>
+      <c r="B4" s="6"/>
+      <c r="C4" s="6"/>
+      <c r="D4" s="6"/>
+      <c r="E4" s="6"/>
+      <c r="F4" s="6"/>
+    </row>
+    <row r="5" spans="1:6" ht="18" customHeight="1">
+      <c r="A5" s="6"/>
+      <c r="B5" s="6"/>
+      <c r="C5" s="6"/>
+      <c r="D5" s="6"/>
+      <c r="E5" s="6"/>
+      <c r="F5" s="6"/>
+    </row>
+    <row r="6" spans="1:6" ht="18" customHeight="1">
+      <c r="A6" s="6"/>
+      <c r="B6" s="6"/>
+      <c r="C6" s="6"/>
+      <c r="D6" s="6"/>
+      <c r="E6" s="6"/>
+      <c r="F6" s="6"/>
+    </row>
+    <row r="7" spans="1:6" ht="18" customHeight="1">
+      <c r="A7" s="6"/>
+      <c r="B7" s="6"/>
+      <c r="C7" s="6"/>
+      <c r="D7" s="6"/>
+      <c r="E7" s="6"/>
+      <c r="F7" s="6"/>
+    </row>
+    <row r="8" spans="1:6" ht="18" customHeight="1">
+      <c r="A8" s="6"/>
+      <c r="B8" s="6"/>
+      <c r="C8" s="6"/>
+      <c r="D8" s="6"/>
+      <c r="E8" s="6"/>
+      <c r="F8" s="6"/>
+    </row>
+    <row r="9" spans="1:6" ht="18" customHeight="1">
+      <c r="A9" s="6"/>
+      <c r="B9" s="6"/>
+      <c r="C9" s="6"/>
+      <c r="D9" s="6"/>
+      <c r="E9" s="6"/>
+      <c r="F9" s="6"/>
+    </row>
+    <row r="10" spans="1:6" ht="18" customHeight="1">
+      <c r="A10" s="6"/>
+      <c r="B10" s="6"/>
+      <c r="C10" s="6"/>
+      <c r="D10" s="6"/>
+      <c r="E10" s="6"/>
+      <c r="F10" s="6"/>
+    </row>
+    <row r="11" spans="1:6" ht="18" customHeight="1">
+      <c r="A11" s="6"/>
+      <c r="B11" s="6"/>
+      <c r="C11" s="6"/>
+      <c r="D11" s="6"/>
+      <c r="E11" s="6"/>
+      <c r="F11" s="6"/>
+    </row>
+    <row r="12" spans="1:6" ht="18" customHeight="1">
+      <c r="A12" s="6"/>
+      <c r="B12" s="6"/>
+      <c r="C12" s="6"/>
+      <c r="D12" s="6"/>
+      <c r="E12" s="6"/>
+      <c r="F12" s="6"/>
+    </row>
+    <row r="13" spans="1:6" ht="18" customHeight="1">
+      <c r="A13" s="6"/>
+      <c r="B13" s="6"/>
+      <c r="C13" s="6"/>
+      <c r="D13" s="6"/>
+      <c r="E13" s="6"/>
+      <c r="F13" s="6"/>
+    </row>
+    <row r="14" spans="1:6" ht="18" customHeight="1">
+      <c r="A14" s="6"/>
+      <c r="B14" s="6"/>
+      <c r="C14" s="6"/>
+      <c r="D14" s="6"/>
+      <c r="E14" s="6"/>
+      <c r="F14" s="6"/>
+    </row>
+    <row r="15" spans="1:6" ht="18" customHeight="1">
+      <c r="A15" s="6"/>
+      <c r="B15" s="6"/>
+      <c r="C15" s="6"/>
+      <c r="D15" s="6"/>
+      <c r="E15" s="6"/>
+      <c r="F15" s="6"/>
+    </row>
+    <row r="16" spans="1:6" ht="18" customHeight="1">
+      <c r="A16" s="6"/>
+      <c r="B16" s="6"/>
+      <c r="C16" s="6"/>
+      <c r="D16" s="6"/>
+      <c r="E16" s="6"/>
+      <c r="F16" s="6"/>
+    </row>
+    <row r="17" spans="1:6" ht="18" customHeight="1">
+      <c r="A17" s="6"/>
+      <c r="B17" s="6"/>
+      <c r="C17" s="6"/>
+      <c r="D17" s="6"/>
+      <c r="E17" s="6"/>
+      <c r="F17" s="6"/>
+    </row>
+    <row r="18" spans="1:6" ht="18" customHeight="1">
+      <c r="A18" s="6"/>
+      <c r="B18" s="6"/>
+      <c r="C18" s="6"/>
+      <c r="D18" s="6"/>
+      <c r="E18" s="6"/>
+      <c r="F18" s="6"/>
+    </row>
+    <row r="19" spans="1:6" ht="18" customHeight="1">
+      <c r="A19" s="6"/>
+      <c r="B19" s="6"/>
+      <c r="C19" s="6"/>
+      <c r="D19" s="6"/>
+      <c r="E19" s="6"/>
+      <c r="F19" s="6"/>
+    </row>
+    <row r="20" spans="1:6" ht="18" customHeight="1">
+      <c r="A20" s="6"/>
+      <c r="B20" s="6"/>
+      <c r="C20" s="6"/>
+      <c r="D20" s="6"/>
+      <c r="E20" s="6"/>
+      <c r="F20" s="6"/>
+    </row>
+    <row r="21" spans="1:6" ht="18" customHeight="1">
+      <c r="A21" s="6"/>
+      <c r="B21" s="6"/>
+      <c r="C21" s="6"/>
+      <c r="D21" s="6"/>
+      <c r="E21" s="6"/>
+      <c r="F21" s="6"/>
+    </row>
+    <row r="22" spans="1:6" ht="18" customHeight="1">
+      <c r="A22" s="6"/>
+      <c r="B22" s="6"/>
+      <c r="C22" s="6"/>
+      <c r="D22" s="6"/>
+      <c r="E22" s="6"/>
+      <c r="F22" s="6"/>
+    </row>
+    <row r="23" spans="1:6" ht="18" customHeight="1">
+      <c r="A23" s="6"/>
+      <c r="B23" s="6"/>
+      <c r="C23" s="6"/>
+      <c r="D23" s="6"/>
+      <c r="E23" s="6"/>
+      <c r="F23" s="6"/>
+    </row>
+    <row r="24" spans="1:6" ht="18" customHeight="1">
+      <c r="A24" s="6"/>
+      <c r="B24" s="6"/>
+      <c r="C24" s="6"/>
+      <c r="D24" s="6"/>
+      <c r="E24" s="6"/>
+      <c r="F24" s="6"/>
+    </row>
+    <row r="25" spans="1:6" ht="18" customHeight="1">
+      <c r="A25" s="6"/>
+      <c r="B25" s="6"/>
+      <c r="C25" s="6"/>
+      <c r="D25" s="6"/>
+      <c r="E25" s="6"/>
+      <c r="F25" s="6"/>
+    </row>
+    <row r="26" spans="1:6" ht="18" customHeight="1">
+      <c r="A26" s="6"/>
+      <c r="B26" s="6"/>
+      <c r="C26" s="6"/>
+      <c r="D26" s="6"/>
+      <c r="E26" s="6"/>
+      <c r="F26" s="6"/>
+    </row>
+    <row r="27" spans="1:6" ht="18" customHeight="1">
+      <c r="A27" s="6"/>
+      <c r="B27" s="6"/>
+      <c r="C27" s="6"/>
+      <c r="D27" s="6"/>
+      <c r="E27" s="6"/>
+      <c r="F27" s="6"/>
+    </row>
+    <row r="28" spans="1:6" ht="18" customHeight="1">
+      <c r="A28" s="6"/>
+      <c r="B28" s="6"/>
+      <c r="C28" s="6"/>
+      <c r="D28" s="6"/>
+      <c r="E28" s="6"/>
+      <c r="F28" s="6"/>
+    </row>
+    <row r="29" spans="1:6" ht="18" customHeight="1">
+      <c r="A29" s="6"/>
+      <c r="B29" s="6"/>
+      <c r="C29" s="6"/>
+      <c r="D29" s="6"/>
+      <c r="E29" s="6"/>
+      <c r="F29" s="6"/>
+    </row>
+    <row r="30" spans="1:6" ht="18" customHeight="1">
+      <c r="A30" s="6"/>
+      <c r="B30" s="6"/>
+      <c r="C30" s="6"/>
+      <c r="D30" s="6"/>
+      <c r="E30" s="6"/>
+      <c r="F30" s="6"/>
+    </row>
+    <row r="31" spans="1:6" ht="18" customHeight="1">
+      <c r="A31" s="6"/>
+      <c r="B31" s="6"/>
+      <c r="C31" s="6"/>
+      <c r="D31" s="6"/>
+      <c r="E31" s="6"/>
+      <c r="F31" s="6"/>
+    </row>
+    <row r="32" spans="1:6" ht="18" customHeight="1">
+      <c r="A32" s="6"/>
+      <c r="B32" s="6"/>
+      <c r="C32" s="6"/>
+      <c r="D32" s="6"/>
+      <c r="E32" s="6"/>
+      <c r="F32" s="6"/>
+    </row>
+    <row r="33" spans="1:6" ht="18" customHeight="1">
+      <c r="A33" s="6"/>
+      <c r="B33" s="6"/>
+      <c r="C33" s="6"/>
+      <c r="D33" s="6"/>
+      <c r="E33" s="6"/>
+      <c r="F33" s="6"/>
+    </row>
+    <row r="34" spans="1:6" ht="18" customHeight="1">
+      <c r="A34" s="6"/>
+      <c r="B34" s="6"/>
+      <c r="C34" s="6"/>
+      <c r="D34" s="6"/>
+      <c r="E34" s="6"/>
+      <c r="F34" s="6"/>
+    </row>
+    <row r="35" spans="1:6" ht="18" customHeight="1">
+      <c r="A35" s="6"/>
+      <c r="B35" s="6"/>
+      <c r="C35" s="6"/>
+      <c r="D35" s="6"/>
+      <c r="E35" s="6"/>
+      <c r="F35" s="6"/>
+    </row>
+    <row r="36" spans="1:6" ht="18" customHeight="1">
+      <c r="A36" s="6"/>
+      <c r="B36" s="6"/>
+      <c r="C36" s="6"/>
+      <c r="D36" s="6"/>
+      <c r="E36" s="6"/>
+      <c r="F36" s="6"/>
+    </row>
+    <row r="37" spans="1:6" ht="18" customHeight="1">
+      <c r="A37" s="6"/>
+      <c r="B37" s="6"/>
+      <c r="C37" s="6"/>
+      <c r="D37" s="6"/>
+      <c r="E37" s="6"/>
+      <c r="F37" s="6"/>
+    </row>
+    <row r="38" spans="1:6" ht="18" customHeight="1">
+      <c r="A38" s="6"/>
+      <c r="B38" s="6"/>
+      <c r="C38" s="6"/>
+      <c r="D38" s="6"/>
+      <c r="E38" s="6"/>
+      <c r="F38" s="6"/>
+    </row>
+    <row r="39" spans="1:6" ht="18" customHeight="1">
+      <c r="A39" s="6"/>
+      <c r="B39" s="6"/>
+      <c r="C39" s="6"/>
+      <c r="D39" s="6"/>
+      <c r="E39" s="6"/>
+      <c r="F39" s="6"/>
+    </row>
+    <row r="40" spans="1:6" ht="18" customHeight="1">
+      <c r="A40" s="6"/>
+      <c r="B40" s="6"/>
+      <c r="C40" s="6"/>
+      <c r="D40" s="6"/>
+      <c r="E40" s="6"/>
+      <c r="F40" s="6"/>
+    </row>
+    <row r="41" spans="1:6" ht="18" customHeight="1">
+      <c r="A41" s="6"/>
+      <c r="B41" s="6"/>
+      <c r="C41" s="6"/>
+      <c r="D41" s="6"/>
+      <c r="E41" s="6"/>
+      <c r="F41" s="6"/>
+    </row>
+    <row r="42" spans="1:6" ht="18" customHeight="1">
+      <c r="A42" s="6"/>
+      <c r="B42" s="6"/>
+      <c r="C42" s="6"/>
+      <c r="D42" s="6"/>
+      <c r="E42" s="6"/>
+      <c r="F42" s="6"/>
+    </row>
+    <row r="43" spans="1:6" ht="18" customHeight="1">
+      <c r="A43" s="6"/>
+      <c r="B43" s="6"/>
+      <c r="C43" s="6"/>
+      <c r="D43" s="6"/>
+      <c r="E43" s="6"/>
+      <c r="F43" s="6"/>
+    </row>
+    <row r="44" spans="1:6" ht="18" customHeight="1">
+      <c r="A44" s="6"/>
+      <c r="B44" s="6"/>
+      <c r="C44" s="6"/>
+      <c r="D44" s="6"/>
+      <c r="E44" s="6"/>
+      <c r="F44" s="6"/>
+    </row>
+    <row r="45" spans="1:6" ht="18" customHeight="1">
+      <c r="A45" s="6"/>
+      <c r="B45" s="6"/>
+      <c r="C45" s="6"/>
+      <c r="D45" s="6"/>
+      <c r="E45" s="6"/>
+      <c r="F45" s="6"/>
+    </row>
+    <row r="46" spans="1:6" ht="18" customHeight="1">
+      <c r="A46" s="6"/>
+      <c r="B46" s="6"/>
+      <c r="C46" s="6"/>
+      <c r="D46" s="6"/>
+      <c r="E46" s="6"/>
+      <c r="F46" s="6"/>
+    </row>
+    <row r="47" spans="1:6" ht="18" customHeight="1">
+      <c r="A47" s="6"/>
+      <c r="B47" s="6"/>
+      <c r="C47" s="6"/>
+      <c r="D47" s="6"/>
+      <c r="E47" s="6"/>
+      <c r="F47" s="6"/>
+    </row>
+    <row r="48" spans="1:6" ht="18" customHeight="1">
+      <c r="A48" s="6"/>
+      <c r="B48" s="6"/>
+      <c r="C48" s="6"/>
+      <c r="D48" s="6"/>
+      <c r="E48" s="6"/>
+      <c r="F48" s="6"/>
+    </row>
+    <row r="49" spans="1:6" ht="18" customHeight="1">
+      <c r="A49" s="6"/>
+      <c r="B49" s="6"/>
+      <c r="C49" s="6"/>
+      <c r="D49" s="6"/>
+      <c r="E49" s="6"/>
+      <c r="F49" s="6"/>
+    </row>
+    <row r="50" spans="1:6" ht="18" customHeight="1">
+      <c r="A50" s="6"/>
+      <c r="B50" s="6"/>
+      <c r="C50" s="6"/>
+      <c r="D50" s="6"/>
+      <c r="E50" s="6"/>
+      <c r="F50" s="6"/>
+    </row>
+    <row r="51" spans="1:6" ht="18" customHeight="1">
+      <c r="A51" s="6"/>
+      <c r="B51" s="6"/>
+      <c r="C51" s="6"/>
+      <c r="D51" s="6"/>
+      <c r="E51" s="6"/>
+      <c r="F51" s="6"/>
+    </row>
+    <row r="52" spans="1:6" ht="18" customHeight="1">
+      <c r="A52" s="6"/>
+      <c r="B52" s="6"/>
+      <c r="C52" s="6"/>
+      <c r="D52" s="6"/>
+      <c r="E52" s="6"/>
+      <c r="F52" s="6"/>
+    </row>
+    <row r="53" spans="1:6" ht="18" customHeight="1">
+      <c r="A53" s="6"/>
+      <c r="B53" s="6"/>
+      <c r="C53" s="6"/>
+      <c r="D53" s="6"/>
+      <c r="E53" s="6"/>
+      <c r="F53" s="6"/>
+    </row>
+    <row r="54" spans="1:6">
+      <c r="A54" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="B54" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="C54" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="D54" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="E54" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="F54" s="7" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6">
+      <c r="A55" t="s">
+        <v>14</v>
+      </c>
+      <c r="B55" t="s">
+        <v>66</v>
+      </c>
+      <c r="C55">
+        <v>4.415232352912125E-249</v>
+      </c>
+      <c r="D55">
+        <v>9846</v>
+      </c>
+      <c r="E55">
         <v>5674</v>
       </c>
-      <c r="C4">
-        <v>0.183559</v>
-      </c>
-      <c r="D4">
-        <v>0.178124</v>
-      </c>
-      <c r="E4">
-        <v>0.189123</v>
-      </c>
-      <c r="F4">
-        <v>0.005563</v>
-      </c>
-      <c r="G4" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
-      <c r="A5" t="s">
-        <v>48</v>
-      </c>
-      <c r="B5">
+      <c r="F55">
+        <v>0.268814</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6">
+      <c r="A56" t="s">
+        <v>14</v>
+      </c>
+      <c r="B56" t="s">
+        <v>67</v>
+      </c>
+      <c r="C56">
+        <v>4.156861553889566E-20</v>
+      </c>
+      <c r="D56">
+        <v>9846</v>
+      </c>
+      <c r="E56">
+        <v>11167</v>
+      </c>
+      <c r="F56">
+        <v>0.06286600000000001</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6">
+      <c r="A57" t="s">
+        <v>14</v>
+      </c>
+      <c r="B57" t="s">
+        <v>68</v>
+      </c>
+      <c r="C57">
+        <v>1.74988571191264E-254</v>
+      </c>
+      <c r="D57">
+        <v>5674</v>
+      </c>
+      <c r="E57">
         <v>9898</v>
       </c>
-      <c r="C5">
-        <v>0.32021</v>
-      </c>
-      <c r="D5">
-        <v>0.313618</v>
-      </c>
-      <c r="E5">
-        <v>0.326873</v>
-      </c>
-      <c r="F5">
-        <v>0.006664</v>
-      </c>
-      <c r="G5" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7">
-      <c r="A6" t="s">
-        <v>49</v>
-      </c>
-      <c r="B6">
+      <c r="F57">
+        <v>0.271256</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6">
+      <c r="A58" t="s">
+        <v>14</v>
+      </c>
+      <c r="B58" t="s">
+        <v>69</v>
+      </c>
+      <c r="C58">
+        <v>0</v>
+      </c>
+      <c r="D58">
+        <v>5674</v>
+      </c>
+      <c r="E58">
         <v>11167</v>
       </c>
-      <c r="C6">
-        <v>0.361263</v>
-      </c>
-      <c r="D6">
-        <v>0.354467</v>
-      </c>
-      <c r="E6">
-        <v>0.368115</v>
-      </c>
-      <c r="F6">
-        <v>0.006852</v>
-      </c>
-      <c r="G6" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7">
-      <c r="A8" s="6" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7">
-      <c r="A9" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="B9" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="C9" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="D9" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="E9" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="F9" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="G9" s="6" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7">
-      <c r="A10" t="s">
-        <v>46</v>
-      </c>
-      <c r="B10">
+      <c r="F58">
+        <v>0.326168</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6">
+      <c r="A59" t="s">
+        <v>14</v>
+      </c>
+      <c r="B59" t="s">
+        <v>70</v>
+      </c>
+      <c r="C59">
+        <v>1.174585436408946E-18</v>
+      </c>
+      <c r="D59">
+        <v>9898</v>
+      </c>
+      <c r="E59">
+        <v>11167</v>
+      </c>
+      <c r="F59">
+        <v>0.060242</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6">
+      <c r="A60" t="s">
+        <v>15</v>
+      </c>
+      <c r="B60" t="s">
+        <v>66</v>
+      </c>
+      <c r="C60">
+        <v>0</v>
+      </c>
+      <c r="D60">
+        <v>10166</v>
+      </c>
+      <c r="E60">
+        <v>5386</v>
+      </c>
+      <c r="F60">
+        <v>0.307356</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6">
+      <c r="A61" t="s">
+        <v>15</v>
+      </c>
+      <c r="B61" t="s">
+        <v>67</v>
+      </c>
+      <c r="C61">
+        <v>1.221316015644245E-13</v>
+      </c>
+      <c r="D61">
+        <v>10166</v>
+      </c>
+      <c r="E61">
+        <v>11238</v>
+      </c>
+      <c r="F61">
+        <v>0.050084</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6">
+      <c r="A62" t="s">
+        <v>15</v>
+      </c>
+      <c r="B62" t="s">
+        <v>68</v>
+      </c>
+      <c r="C62">
+        <v>4.334437910965256E-320</v>
+      </c>
+      <c r="D62">
+        <v>5386</v>
+      </c>
+      <c r="E62">
+        <v>10108</v>
+      </c>
+      <c r="F62">
+        <v>0.304763</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6">
+      <c r="A63" t="s">
+        <v>15</v>
+      </c>
+      <c r="B63" t="s">
+        <v>69</v>
+      </c>
+      <c r="C63">
+        <v>0</v>
+      </c>
+      <c r="D63">
+        <v>5386</v>
+      </c>
+      <c r="E63">
+        <v>11238</v>
+      </c>
+      <c r="F63">
+        <v>0.352021</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6">
+      <c r="A64" t="s">
+        <v>15</v>
+      </c>
+      <c r="B64" t="s">
+        <v>70</v>
+      </c>
+      <c r="C64">
+        <v>5.410637300729848E-15</v>
+      </c>
+      <c r="D64">
+        <v>10108</v>
+      </c>
+      <c r="E64">
+        <v>11238</v>
+      </c>
+      <c r="F64">
+        <v>0.052937</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:F53"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:F72"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="14.7109375" customWidth="1"/>
+    <col min="2" max="2" width="18.7109375" customWidth="1"/>
+    <col min="3" max="6" width="12.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" ht="18" customHeight="1">
+      <c r="A1" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="B1" s="6"/>
+      <c r="C1" s="6"/>
+      <c r="D1" s="6"/>
+      <c r="E1" s="6"/>
+      <c r="F1" s="6"/>
+    </row>
+    <row r="2" spans="1:6" ht="18" customHeight="1">
+      <c r="A2" s="6"/>
+      <c r="B2" s="6"/>
+      <c r="C2" s="6"/>
+      <c r="D2" s="6"/>
+      <c r="E2" s="6"/>
+      <c r="F2" s="6"/>
+    </row>
+    <row r="3" spans="1:6" ht="18" customHeight="1">
+      <c r="A3" s="6"/>
+      <c r="B3" s="6"/>
+      <c r="C3" s="6"/>
+      <c r="D3" s="6"/>
+      <c r="E3" s="6"/>
+      <c r="F3" s="6"/>
+    </row>
+    <row r="4" spans="1:6" ht="18" customHeight="1">
+      <c r="A4" s="6"/>
+      <c r="B4" s="6"/>
+      <c r="C4" s="6"/>
+      <c r="D4" s="6"/>
+      <c r="E4" s="6"/>
+      <c r="F4" s="6"/>
+    </row>
+    <row r="5" spans="1:6" ht="18" customHeight="1">
+      <c r="A5" s="6"/>
+      <c r="B5" s="6"/>
+      <c r="C5" s="6"/>
+      <c r="D5" s="6"/>
+      <c r="E5" s="6"/>
+      <c r="F5" s="6"/>
+    </row>
+    <row r="6" spans="1:6" ht="18" customHeight="1">
+      <c r="A6" s="6"/>
+      <c r="B6" s="6"/>
+      <c r="C6" s="6"/>
+      <c r="D6" s="6"/>
+      <c r="E6" s="6"/>
+      <c r="F6" s="6"/>
+    </row>
+    <row r="7" spans="1:6" ht="18" customHeight="1">
+      <c r="A7" s="6"/>
+      <c r="B7" s="6"/>
+      <c r="C7" s="6"/>
+      <c r="D7" s="6"/>
+      <c r="E7" s="6"/>
+      <c r="F7" s="6"/>
+    </row>
+    <row r="8" spans="1:6" ht="18" customHeight="1">
+      <c r="A8" s="6"/>
+      <c r="B8" s="6"/>
+      <c r="C8" s="6"/>
+      <c r="D8" s="6"/>
+      <c r="E8" s="6"/>
+      <c r="F8" s="6"/>
+    </row>
+    <row r="9" spans="1:6" ht="18" customHeight="1">
+      <c r="A9" s="6"/>
+      <c r="B9" s="6"/>
+      <c r="C9" s="6"/>
+      <c r="D9" s="6"/>
+      <c r="E9" s="6"/>
+      <c r="F9" s="6"/>
+    </row>
+    <row r="10" spans="1:6" ht="18" customHeight="1">
+      <c r="A10" s="6"/>
+      <c r="B10" s="6"/>
+      <c r="C10" s="6"/>
+      <c r="D10" s="6"/>
+      <c r="E10" s="6"/>
+      <c r="F10" s="6"/>
+    </row>
+    <row r="11" spans="1:6" ht="18" customHeight="1">
+      <c r="A11" s="6"/>
+      <c r="B11" s="6"/>
+      <c r="C11" s="6"/>
+      <c r="D11" s="6"/>
+      <c r="E11" s="6"/>
+      <c r="F11" s="6"/>
+    </row>
+    <row r="12" spans="1:6" ht="18" customHeight="1">
+      <c r="A12" s="6"/>
+      <c r="B12" s="6"/>
+      <c r="C12" s="6"/>
+      <c r="D12" s="6"/>
+      <c r="E12" s="6"/>
+      <c r="F12" s="6"/>
+    </row>
+    <row r="13" spans="1:6" ht="18" customHeight="1">
+      <c r="A13" s="6"/>
+      <c r="B13" s="6"/>
+      <c r="C13" s="6"/>
+      <c r="D13" s="6"/>
+      <c r="E13" s="6"/>
+      <c r="F13" s="6"/>
+    </row>
+    <row r="14" spans="1:6" ht="18" customHeight="1">
+      <c r="A14" s="6"/>
+      <c r="B14" s="6"/>
+      <c r="C14" s="6"/>
+      <c r="D14" s="6"/>
+      <c r="E14" s="6"/>
+      <c r="F14" s="6"/>
+    </row>
+    <row r="15" spans="1:6" ht="18" customHeight="1">
+      <c r="A15" s="6"/>
+      <c r="B15" s="6"/>
+      <c r="C15" s="6"/>
+      <c r="D15" s="6"/>
+      <c r="E15" s="6"/>
+      <c r="F15" s="6"/>
+    </row>
+    <row r="16" spans="1:6" ht="18" customHeight="1">
+      <c r="A16" s="6"/>
+      <c r="B16" s="6"/>
+      <c r="C16" s="6"/>
+      <c r="D16" s="6"/>
+      <c r="E16" s="6"/>
+      <c r="F16" s="6"/>
+    </row>
+    <row r="17" spans="1:6" ht="18" customHeight="1">
+      <c r="A17" s="6"/>
+      <c r="B17" s="6"/>
+      <c r="C17" s="6"/>
+      <c r="D17" s="6"/>
+      <c r="E17" s="6"/>
+      <c r="F17" s="6"/>
+    </row>
+    <row r="18" spans="1:6" ht="18" customHeight="1">
+      <c r="A18" s="6"/>
+      <c r="B18" s="6"/>
+      <c r="C18" s="6"/>
+      <c r="D18" s="6"/>
+      <c r="E18" s="6"/>
+      <c r="F18" s="6"/>
+    </row>
+    <row r="19" spans="1:6" ht="18" customHeight="1">
+      <c r="A19" s="6"/>
+      <c r="B19" s="6"/>
+      <c r="C19" s="6"/>
+      <c r="D19" s="6"/>
+      <c r="E19" s="6"/>
+      <c r="F19" s="6"/>
+    </row>
+    <row r="20" spans="1:6" ht="18" customHeight="1">
+      <c r="A20" s="6"/>
+      <c r="B20" s="6"/>
+      <c r="C20" s="6"/>
+      <c r="D20" s="6"/>
+      <c r="E20" s="6"/>
+      <c r="F20" s="6"/>
+    </row>
+    <row r="21" spans="1:6" ht="18" customHeight="1">
+      <c r="A21" s="6"/>
+      <c r="B21" s="6"/>
+      <c r="C21" s="6"/>
+      <c r="D21" s="6"/>
+      <c r="E21" s="6"/>
+      <c r="F21" s="6"/>
+    </row>
+    <row r="22" spans="1:6" ht="18" customHeight="1">
+      <c r="A22" s="6"/>
+      <c r="B22" s="6"/>
+      <c r="C22" s="6"/>
+      <c r="D22" s="6"/>
+      <c r="E22" s="6"/>
+      <c r="F22" s="6"/>
+    </row>
+    <row r="23" spans="1:6" ht="18" customHeight="1">
+      <c r="A23" s="6"/>
+      <c r="B23" s="6"/>
+      <c r="C23" s="6"/>
+      <c r="D23" s="6"/>
+      <c r="E23" s="6"/>
+      <c r="F23" s="6"/>
+    </row>
+    <row r="24" spans="1:6" ht="18" customHeight="1">
+      <c r="A24" s="6"/>
+      <c r="B24" s="6"/>
+      <c r="C24" s="6"/>
+      <c r="D24" s="6"/>
+      <c r="E24" s="6"/>
+      <c r="F24" s="6"/>
+    </row>
+    <row r="25" spans="1:6" ht="18" customHeight="1">
+      <c r="A25" s="6"/>
+      <c r="B25" s="6"/>
+      <c r="C25" s="6"/>
+      <c r="D25" s="6"/>
+      <c r="E25" s="6"/>
+      <c r="F25" s="6"/>
+    </row>
+    <row r="26" spans="1:6" ht="18" customHeight="1">
+      <c r="A26" s="6"/>
+      <c r="B26" s="6"/>
+      <c r="C26" s="6"/>
+      <c r="D26" s="6"/>
+      <c r="E26" s="6"/>
+      <c r="F26" s="6"/>
+    </row>
+    <row r="27" spans="1:6" ht="18" customHeight="1">
+      <c r="A27" s="6"/>
+      <c r="B27" s="6"/>
+      <c r="C27" s="6"/>
+      <c r="D27" s="6"/>
+      <c r="E27" s="6"/>
+      <c r="F27" s="6"/>
+    </row>
+    <row r="28" spans="1:6" ht="18" customHeight="1">
+      <c r="A28" s="6"/>
+      <c r="B28" s="6"/>
+      <c r="C28" s="6"/>
+      <c r="D28" s="6"/>
+      <c r="E28" s="6"/>
+      <c r="F28" s="6"/>
+    </row>
+    <row r="29" spans="1:6" ht="18" customHeight="1">
+      <c r="A29" s="6"/>
+      <c r="B29" s="6"/>
+      <c r="C29" s="6"/>
+      <c r="D29" s="6"/>
+      <c r="E29" s="6"/>
+      <c r="F29" s="6"/>
+    </row>
+    <row r="30" spans="1:6" ht="18" customHeight="1">
+      <c r="A30" s="6"/>
+      <c r="B30" s="6"/>
+      <c r="C30" s="6"/>
+      <c r="D30" s="6"/>
+      <c r="E30" s="6"/>
+      <c r="F30" s="6"/>
+    </row>
+    <row r="31" spans="1:6" ht="18" customHeight="1">
+      <c r="A31" s="6"/>
+      <c r="B31" s="6"/>
+      <c r="C31" s="6"/>
+      <c r="D31" s="6"/>
+      <c r="E31" s="6"/>
+      <c r="F31" s="6"/>
+    </row>
+    <row r="32" spans="1:6" ht="18" customHeight="1">
+      <c r="A32" s="6"/>
+      <c r="B32" s="6"/>
+      <c r="C32" s="6"/>
+      <c r="D32" s="6"/>
+      <c r="E32" s="6"/>
+      <c r="F32" s="6"/>
+    </row>
+    <row r="33" spans="1:6" ht="18" customHeight="1">
+      <c r="A33" s="6"/>
+      <c r="B33" s="6"/>
+      <c r="C33" s="6"/>
+      <c r="D33" s="6"/>
+      <c r="E33" s="6"/>
+      <c r="F33" s="6"/>
+    </row>
+    <row r="34" spans="1:6" ht="18" customHeight="1">
+      <c r="A34" s="6"/>
+      <c r="B34" s="6"/>
+      <c r="C34" s="6"/>
+      <c r="D34" s="6"/>
+      <c r="E34" s="6"/>
+      <c r="F34" s="6"/>
+    </row>
+    <row r="35" spans="1:6" ht="18" customHeight="1">
+      <c r="A35" s="6"/>
+      <c r="B35" s="6"/>
+      <c r="C35" s="6"/>
+      <c r="D35" s="6"/>
+      <c r="E35" s="6"/>
+      <c r="F35" s="6"/>
+    </row>
+    <row r="36" spans="1:6" ht="18" customHeight="1">
+      <c r="A36" s="6"/>
+      <c r="B36" s="6"/>
+      <c r="C36" s="6"/>
+      <c r="D36" s="6"/>
+      <c r="E36" s="6"/>
+      <c r="F36" s="6"/>
+    </row>
+    <row r="37" spans="1:6" ht="18" customHeight="1">
+      <c r="A37" s="6"/>
+      <c r="B37" s="6"/>
+      <c r="C37" s="6"/>
+      <c r="D37" s="6"/>
+      <c r="E37" s="6"/>
+      <c r="F37" s="6"/>
+    </row>
+    <row r="38" spans="1:6" ht="18" customHeight="1">
+      <c r="A38" s="6"/>
+      <c r="B38" s="6"/>
+      <c r="C38" s="6"/>
+      <c r="D38" s="6"/>
+      <c r="E38" s="6"/>
+      <c r="F38" s="6"/>
+    </row>
+    <row r="39" spans="1:6" ht="18" customHeight="1">
+      <c r="A39" s="6"/>
+      <c r="B39" s="6"/>
+      <c r="C39" s="6"/>
+      <c r="D39" s="6"/>
+      <c r="E39" s="6"/>
+      <c r="F39" s="6"/>
+    </row>
+    <row r="40" spans="1:6" ht="18" customHeight="1">
+      <c r="A40" s="6"/>
+      <c r="B40" s="6"/>
+      <c r="C40" s="6"/>
+      <c r="D40" s="6"/>
+      <c r="E40" s="6"/>
+      <c r="F40" s="6"/>
+    </row>
+    <row r="41" spans="1:6" ht="18" customHeight="1">
+      <c r="A41" s="6"/>
+      <c r="B41" s="6"/>
+      <c r="C41" s="6"/>
+      <c r="D41" s="6"/>
+      <c r="E41" s="6"/>
+      <c r="F41" s="6"/>
+    </row>
+    <row r="42" spans="1:6" ht="18" customHeight="1">
+      <c r="A42" s="6"/>
+      <c r="B42" s="6"/>
+      <c r="C42" s="6"/>
+      <c r="D42" s="6"/>
+      <c r="E42" s="6"/>
+      <c r="F42" s="6"/>
+    </row>
+    <row r="43" spans="1:6" ht="18" customHeight="1">
+      <c r="A43" s="6"/>
+      <c r="B43" s="6"/>
+      <c r="C43" s="6"/>
+      <c r="D43" s="6"/>
+      <c r="E43" s="6"/>
+      <c r="F43" s="6"/>
+    </row>
+    <row r="44" spans="1:6" ht="18" customHeight="1">
+      <c r="A44" s="6"/>
+      <c r="B44" s="6"/>
+      <c r="C44" s="6"/>
+      <c r="D44" s="6"/>
+      <c r="E44" s="6"/>
+      <c r="F44" s="6"/>
+    </row>
+    <row r="45" spans="1:6" ht="18" customHeight="1">
+      <c r="A45" s="6"/>
+      <c r="B45" s="6"/>
+      <c r="C45" s="6"/>
+      <c r="D45" s="6"/>
+      <c r="E45" s="6"/>
+      <c r="F45" s="6"/>
+    </row>
+    <row r="46" spans="1:6" ht="18" customHeight="1">
+      <c r="A46" s="6"/>
+      <c r="B46" s="6"/>
+      <c r="C46" s="6"/>
+      <c r="D46" s="6"/>
+      <c r="E46" s="6"/>
+      <c r="F46" s="6"/>
+    </row>
+    <row r="47" spans="1:6" ht="18" customHeight="1">
+      <c r="A47" s="6"/>
+      <c r="B47" s="6"/>
+      <c r="C47" s="6"/>
+      <c r="D47" s="6"/>
+      <c r="E47" s="6"/>
+      <c r="F47" s="6"/>
+    </row>
+    <row r="48" spans="1:6" ht="18" customHeight="1">
+      <c r="A48" s="6"/>
+      <c r="B48" s="6"/>
+      <c r="C48" s="6"/>
+      <c r="D48" s="6"/>
+      <c r="E48" s="6"/>
+      <c r="F48" s="6"/>
+    </row>
+    <row r="49" spans="1:6" ht="18" customHeight="1">
+      <c r="A49" s="6"/>
+      <c r="B49" s="6"/>
+      <c r="C49" s="6"/>
+      <c r="D49" s="6"/>
+      <c r="E49" s="6"/>
+      <c r="F49" s="6"/>
+    </row>
+    <row r="50" spans="1:6" ht="18" customHeight="1">
+      <c r="A50" s="6"/>
+      <c r="B50" s="6"/>
+      <c r="C50" s="6"/>
+      <c r="D50" s="6"/>
+      <c r="E50" s="6"/>
+      <c r="F50" s="6"/>
+    </row>
+    <row r="51" spans="1:6" ht="18" customHeight="1">
+      <c r="A51" s="6"/>
+      <c r="B51" s="6"/>
+      <c r="C51" s="6"/>
+      <c r="D51" s="6"/>
+      <c r="E51" s="6"/>
+      <c r="F51" s="6"/>
+    </row>
+    <row r="52" spans="1:6" ht="18" customHeight="1">
+      <c r="A52" s="6"/>
+      <c r="B52" s="6"/>
+      <c r="C52" s="6"/>
+      <c r="D52" s="6"/>
+      <c r="E52" s="6"/>
+      <c r="F52" s="6"/>
+    </row>
+    <row r="53" spans="1:6" ht="18" customHeight="1">
+      <c r="A53" s="6"/>
+      <c r="B53" s="6"/>
+      <c r="C53" s="6"/>
+      <c r="D53" s="6"/>
+      <c r="E53" s="6"/>
+      <c r="F53" s="6"/>
+    </row>
+    <row r="54" spans="1:6">
+      <c r="A54" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="B54" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="C54" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="D54" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="E54" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="F54" s="7" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6">
+      <c r="A55" t="s">
+        <v>14</v>
+      </c>
+      <c r="B55" t="s">
+        <v>66</v>
+      </c>
+      <c r="C55">
+        <v>5.873770773413136E-126</v>
+      </c>
+      <c r="D55">
         <v>3638</v>
       </c>
-      <c r="C10">
-        <v>0.117693</v>
-      </c>
-      <c r="D10">
-        <v>0.112773</v>
-      </c>
-      <c r="E10">
-        <v>0.122797</v>
-      </c>
-      <c r="F10">
-        <v>0.005104</v>
-      </c>
-      <c r="G10" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7">
-      <c r="A11" t="s">
-        <v>51</v>
-      </c>
-      <c r="B11">
+      <c r="E55">
+        <v>1881</v>
+      </c>
+      <c r="F55">
+        <v>0.318355</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6">
+      <c r="A56" t="s">
+        <v>14</v>
+      </c>
+      <c r="B56" t="s">
+        <v>67</v>
+      </c>
+      <c r="C56">
+        <v>7.338046632718133E-35</v>
+      </c>
+      <c r="D56">
+        <v>3638</v>
+      </c>
+      <c r="E56">
+        <v>4761</v>
+      </c>
+      <c r="F56">
+        <v>0.133706</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6">
+      <c r="A57" t="s">
+        <v>14</v>
+      </c>
+      <c r="B57" t="s">
+        <v>68</v>
+      </c>
+      <c r="C57">
+        <v>7.58273656545448E-123</v>
+      </c>
+      <c r="D57">
+        <v>1881</v>
+      </c>
+      <c r="E57">
+        <v>3612</v>
+      </c>
+      <c r="F57">
+        <v>0.315128</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6">
+      <c r="A58" t="s">
+        <v>14</v>
+      </c>
+      <c r="B58" t="s">
+        <v>69</v>
+      </c>
+      <c r="C58">
+        <v>7.50946601666824E-283</v>
+      </c>
+      <c r="D58">
+        <v>1881</v>
+      </c>
+      <c r="E58">
+        <v>4761</v>
+      </c>
+      <c r="F58">
+        <v>0.433604</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6">
+      <c r="A59" t="s">
+        <v>14</v>
+      </c>
+      <c r="B59" t="s">
+        <v>70</v>
+      </c>
+      <c r="C59">
+        <v>1.633021234757425E-36</v>
+      </c>
+      <c r="D59">
+        <v>3612</v>
+      </c>
+      <c r="E59">
+        <v>4761</v>
+      </c>
+      <c r="F59">
+        <v>0.137227</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6">
+      <c r="A60" t="s">
+        <v>14</v>
+      </c>
+      <c r="B60" t="s">
+        <v>71</v>
+      </c>
+      <c r="C60">
+        <v>1.377871299362759E-15</v>
+      </c>
+      <c r="D60">
         <v>4614</v>
       </c>
-      <c r="C11">
-        <v>0.149267</v>
-      </c>
-      <c r="D11">
-        <v>0.14381</v>
-      </c>
-      <c r="E11">
-        <v>0.154894</v>
-      </c>
-      <c r="F11">
-        <v>0.005627</v>
-      </c>
-      <c r="G11" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7">
-      <c r="A12" t="s">
-        <v>47</v>
-      </c>
-      <c r="B12">
-        <v>1881</v>
-      </c>
-      <c r="C12">
-        <v>0.060852</v>
-      </c>
-      <c r="D12">
-        <v>0.057239</v>
-      </c>
-      <c r="E12">
-        <v>0.064677</v>
-      </c>
-      <c r="F12">
-        <v>0.003825</v>
-      </c>
-      <c r="G12" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7">
-      <c r="A13" t="s">
-        <v>52</v>
-      </c>
-      <c r="B13">
+      <c r="E60">
+        <v>3885</v>
+      </c>
+      <c r="F60">
+        <v>0.085775</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6">
+      <c r="A61" t="s">
+        <v>14</v>
+      </c>
+      <c r="B61" t="s">
+        <v>72</v>
+      </c>
+      <c r="C61">
+        <v>1.236784090804322E-10</v>
+      </c>
+      <c r="D61">
+        <v>4614</v>
+      </c>
+      <c r="E61">
+        <v>4025</v>
+      </c>
+      <c r="F61">
+        <v>0.068179</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6">
+      <c r="A62" t="s">
+        <v>14</v>
+      </c>
+      <c r="B62" t="s">
+        <v>73</v>
+      </c>
+      <c r="C62">
+        <v>1.411437983061997E-11</v>
+      </c>
+      <c r="D62">
         <v>4495</v>
       </c>
-      <c r="C13">
-        <v>0.145417</v>
-      </c>
-      <c r="D13">
-        <v>0.140021</v>
-      </c>
-      <c r="E13">
-        <v>0.150986</v>
-      </c>
-      <c r="F13">
-        <v>0.005568</v>
-      </c>
-      <c r="G13" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7">
-      <c r="A14" t="s">
-        <v>48</v>
-      </c>
-      <c r="B14">
-        <v>3612</v>
-      </c>
-      <c r="C14">
-        <v>0.116852</v>
-      </c>
-      <c r="D14">
-        <v>0.111948</v>
-      </c>
-      <c r="E14">
-        <v>0.121941</v>
-      </c>
-      <c r="F14">
-        <v>0.005089</v>
-      </c>
-      <c r="G14" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7">
-      <c r="A15" t="s">
-        <v>53</v>
-      </c>
-      <c r="B15">
+      <c r="E62">
         <v>3885</v>
       </c>
-      <c r="C15">
-        <v>0.125683</v>
-      </c>
-      <c r="D15">
-        <v>0.120618</v>
-      </c>
-      <c r="E15">
-        <v>0.13093</v>
-      </c>
-      <c r="F15">
-        <v>0.005246</v>
-      </c>
-      <c r="G15" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7">
-      <c r="A16" t="s">
-        <v>49</v>
-      </c>
-      <c r="B16">
-        <v>4761</v>
-      </c>
-      <c r="C16">
-        <v>0.154023</v>
-      </c>
-      <c r="D16">
-        <v>0.148493</v>
-      </c>
-      <c r="E16">
-        <v>0.15972</v>
-      </c>
-      <c r="F16">
-        <v>0.005698</v>
-      </c>
-      <c r="G16" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7">
-      <c r="A17" t="s">
-        <v>54</v>
-      </c>
-      <c r="B17">
+      <c r="F62">
+        <v>0.072792</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6">
+      <c r="A63" t="s">
+        <v>14</v>
+      </c>
+      <c r="B63" t="s">
+        <v>74</v>
+      </c>
+      <c r="C63">
+        <v>1.86465822497439E-07</v>
+      </c>
+      <c r="D63">
+        <v>4495</v>
+      </c>
+      <c r="E63">
         <v>4025</v>
       </c>
-      <c r="C17">
-        <v>0.130213</v>
-      </c>
-      <c r="D17">
-        <v>0.125068</v>
-      </c>
-      <c r="E17">
-        <v>0.135536</v>
-      </c>
-      <c r="F17">
-        <v>0.005324</v>
-      </c>
-      <c r="G17" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7">
-      <c r="A20" s="6" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7">
-      <c r="A21" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="B21" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="C21" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="D21" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="E21" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="F21" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="G21" s="6" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7">
-      <c r="A22" t="s">
-        <v>46</v>
-      </c>
-      <c r="B22">
-        <v>10166</v>
-      </c>
-      <c r="C22">
-        <v>0.32888</v>
-      </c>
-      <c r="D22">
-        <v>0.322241</v>
-      </c>
-      <c r="E22">
-        <v>0.335588</v>
-      </c>
-      <c r="F22">
-        <v>0.006708</v>
-      </c>
-      <c r="G22" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7">
-      <c r="A23" t="s">
-        <v>47</v>
-      </c>
-      <c r="B23">
-        <v>5386</v>
-      </c>
-      <c r="C23">
-        <v>0.174242</v>
-      </c>
-      <c r="D23">
-        <v>0.168919</v>
-      </c>
-      <c r="E23">
-        <v>0.179697</v>
-      </c>
-      <c r="F23">
-        <v>0.005454</v>
-      </c>
-      <c r="G23" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7">
-      <c r="A24" t="s">
-        <v>48</v>
-      </c>
-      <c r="B24">
-        <v>10108</v>
-      </c>
-      <c r="C24">
-        <v>0.327003</v>
-      </c>
-      <c r="D24">
-        <v>0.320374</v>
-      </c>
-      <c r="E24">
-        <v>0.333702</v>
-      </c>
-      <c r="F24">
-        <v>0.006699</v>
-      </c>
-      <c r="G24" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7">
-      <c r="A25" t="s">
-        <v>49</v>
-      </c>
-      <c r="B25">
-        <v>11238</v>
-      </c>
-      <c r="C25">
-        <v>0.36356</v>
-      </c>
-      <c r="D25">
-        <v>0.356754</v>
-      </c>
-      <c r="E25">
-        <v>0.37042</v>
-      </c>
-      <c r="F25">
-        <v>0.006861</v>
-      </c>
-      <c r="G25" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7">
-      <c r="A27" s="6" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7">
-      <c r="A28" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="B28" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="C28" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="D28" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="E28" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="F28" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="G28" s="6" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7">
-      <c r="A29" t="s">
-        <v>46</v>
-      </c>
-      <c r="B29">
+      <c r="F63">
+        <v>0.055164</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6">
+      <c r="A64" t="s">
+        <v>15</v>
+      </c>
+      <c r="B64" t="s">
+        <v>66</v>
+      </c>
+      <c r="C64">
+        <v>1.851744740224337E-301</v>
+      </c>
+      <c r="D64">
         <v>4303</v>
       </c>
-      <c r="C29">
-        <v>0.139206</v>
-      </c>
-      <c r="D29">
-        <v>0.13391</v>
-      </c>
-      <c r="E29">
-        <v>0.144677</v>
-      </c>
-      <c r="F29">
-        <v>0.005471</v>
-      </c>
-      <c r="G29" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7">
-      <c r="A30" t="s">
-        <v>51</v>
-      </c>
-      <c r="B30">
+      <c r="E64">
+        <v>1527</v>
+      </c>
+      <c r="F64">
+        <v>0.476158</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6">
+      <c r="A65" t="s">
+        <v>15</v>
+      </c>
+      <c r="B65" t="s">
+        <v>67</v>
+      </c>
+      <c r="C65">
+        <v>6.877388310448417E-05</v>
+      </c>
+      <c r="D65">
+        <v>4303</v>
+      </c>
+      <c r="E65">
+        <v>4665</v>
+      </c>
+      <c r="F65">
+        <v>0.040366</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6">
+      <c r="A66" t="s">
+        <v>15</v>
+      </c>
+      <c r="B66" t="s">
+        <v>68</v>
+      </c>
+      <c r="C66">
+        <v>1.977398634704555E-299</v>
+      </c>
+      <c r="D66">
+        <v>1527</v>
+      </c>
+      <c r="E66">
+        <v>4291</v>
+      </c>
+      <c r="F66">
+        <v>0.475077</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6">
+      <c r="A67" t="s">
+        <v>15</v>
+      </c>
+      <c r="B67" t="s">
+        <v>69</v>
+      </c>
+      <c r="C67">
+        <v>0</v>
+      </c>
+      <c r="D67">
+        <v>1527</v>
+      </c>
+      <c r="E67">
+        <v>4665</v>
+      </c>
+      <c r="F67">
+        <v>0.506783</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6">
+      <c r="A68" t="s">
+        <v>15</v>
+      </c>
+      <c r="B68" t="s">
+        <v>70</v>
+      </c>
+      <c r="C68">
+        <v>4.041176173238516E-05</v>
+      </c>
+      <c r="D68">
+        <v>4291</v>
+      </c>
+      <c r="E68">
+        <v>4665</v>
+      </c>
+      <c r="F68">
+        <v>0.04176</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6">
+      <c r="A69" t="s">
+        <v>15</v>
+      </c>
+      <c r="B69" t="s">
+        <v>75</v>
+      </c>
+      <c r="C69">
+        <v>9.435431537566799E-23</v>
+      </c>
+      <c r="D69">
         <v>3538</v>
       </c>
-      <c r="C30">
-        <v>0.114458</v>
-      </c>
-      <c r="D30">
-        <v>0.109599</v>
-      </c>
-      <c r="E30">
-        <v>0.119503</v>
-      </c>
-      <c r="F30">
-        <v>0.005045</v>
-      </c>
-      <c r="G30" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7">
-      <c r="A31" t="s">
-        <v>47</v>
-      </c>
-      <c r="B31">
-        <v>1527</v>
-      </c>
-      <c r="C31">
-        <v>0.0494</v>
-      </c>
-      <c r="D31">
-        <v>0.046137</v>
-      </c>
-      <c r="E31">
-        <v>0.05288</v>
-      </c>
-      <c r="F31">
-        <v>0.003481</v>
-      </c>
-      <c r="G31" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7">
-      <c r="A32" t="s">
-        <v>52</v>
-      </c>
-      <c r="B32">
+      <c r="E69">
+        <v>4407</v>
+      </c>
+      <c r="F69">
+        <v>0.109377</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6">
+      <c r="A70" t="s">
+        <v>15</v>
+      </c>
+      <c r="B70" t="s">
+        <v>76</v>
+      </c>
+      <c r="C70">
+        <v>1.408752177293286E-26</v>
+      </c>
+      <c r="D70">
+        <v>3538</v>
+      </c>
+      <c r="E70">
+        <v>4488</v>
+      </c>
+      <c r="F70">
+        <v>0.118365</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6">
+      <c r="A71" t="s">
+        <v>15</v>
+      </c>
+      <c r="B71" t="s">
+        <v>77</v>
+      </c>
+      <c r="C71">
+        <v>1.019958855595024E-15</v>
+      </c>
+      <c r="D71">
         <v>3692</v>
       </c>
-      <c r="C32">
-        <v>0.11944</v>
-      </c>
-      <c r="D32">
-        <v>0.114488</v>
-      </c>
-      <c r="E32">
-        <v>0.124576</v>
-      </c>
-      <c r="F32">
-        <v>0.005136</v>
-      </c>
-      <c r="G32" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7">
-      <c r="A33" t="s">
-        <v>48</v>
-      </c>
-      <c r="B33">
-        <v>4291</v>
-      </c>
-      <c r="C33">
-        <v>0.138818</v>
-      </c>
-      <c r="D33">
-        <v>0.133528</v>
-      </c>
-      <c r="E33">
-        <v>0.144283</v>
-      </c>
-      <c r="F33">
-        <v>0.005465</v>
-      </c>
-      <c r="G33" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7">
-      <c r="A34" t="s">
-        <v>53</v>
-      </c>
-      <c r="B34">
+      <c r="E71">
         <v>4407</v>
       </c>
-      <c r="C34">
-        <v>0.142571</v>
-      </c>
-      <c r="D34">
-        <v>0.137219</v>
-      </c>
-      <c r="E34">
-        <v>0.148095</v>
-      </c>
-      <c r="F34">
-        <v>0.005524</v>
-      </c>
-      <c r="G34" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7">
-      <c r="A35" t="s">
-        <v>49</v>
-      </c>
-      <c r="B35">
-        <v>4665</v>
-      </c>
-      <c r="C35">
-        <v>0.150917</v>
-      </c>
-      <c r="D35">
-        <v>0.145434</v>
-      </c>
-      <c r="E35">
-        <v>0.156569</v>
-      </c>
-      <c r="F35">
-        <v>0.005652</v>
-      </c>
-      <c r="G35" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7">
-      <c r="A36" t="s">
-        <v>54</v>
-      </c>
-      <c r="B36">
+      <c r="F71">
+        <v>0.088283</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6">
+      <c r="A72" t="s">
+        <v>15</v>
+      </c>
+      <c r="B72" t="s">
+        <v>78</v>
+      </c>
+      <c r="C72">
+        <v>7.033311276848409E-19</v>
+      </c>
+      <c r="D72">
+        <v>3692</v>
+      </c>
+      <c r="E72">
         <v>4488</v>
       </c>
-      <c r="C36">
-        <v>0.145191</v>
-      </c>
-      <c r="D36">
-        <v>0.139798</v>
-      </c>
-      <c r="E36">
-        <v>0.150756</v>
-      </c>
-      <c r="F36">
-        <v>0.005565</v>
-      </c>
-      <c r="G36" t="b">
-        <v>1</v>
+      <c r="F72">
+        <v>0.09731099999999999</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:F53"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/BDs/BDXLKp/r+_BDXLKp_3.09w.xlsx
+++ b/BDs/BDXLKp/r+_BDXLKp_3.09w.xlsx
@@ -153,15 +153,18 @@
 3) 两类显著性比较（用于判断 A &gt; B）
    - 只看落在 A 或 B 的样本，令 m = A + B。
    - 在原假设 H0: p_A = p_B（条件下 p = 0.5）下，A ~ Binomial(m, 0.5)。
-   - 使用精确二项检验（binomtest）做单侧检验：H1: p_A &gt; 0.5（即 A 的概率大于 B）。
+   - 使用精确二项检验（binomtest）做单侧检验：H1: p_A &gt; 0.5（即 A 的条件概率大于 B）。
    - 得到单侧 p_value（脚本中称为原始 p_value）。
 4) 多重比较校正（组内 Bonferroni）
    - 在同一组（例如门组或某方向子组）内做所有两两比较，若组内共有 T 个两两比较，
      则每次检验的显著性阈值设为 alpha_per_test = overall_alpha / T（overall_alpha 默认为 0.05）。
    - 仅当单侧 p_value &lt;= alpha_per_test 时，记录显著结论 A&gt;B（或 B&gt;A）。
-5) 差值与效应量
-   - 在两类比较中，观测差值定义为 diff = pA - pB，其中 pA = A / m, pB = B / m。
-   - diff 用于衡量实际效应大小；p_value 用于衡量统计显著性，两者需结合解读。
+5) 差值与效应量（使用总样本 N 作为分母）
+   - 在两类比较中，差值定义为：
+       diff_total = (A/N) - (B/N)，其中 N 为总样本量。
+   - 这样差值直接反映在总样本中的概率差异，便于与“误差 ≤1%（按 N 分母）”规则对齐。
+   - 在结论页中，差值单元格按以下规则着色：
+       &lt;1% → 灰色；1%~2% → 黄色；≥2% → 绿色。
 6) 方向比较限制（脚本实现细节）
    - 方向分为两组：直角组 = {Left, Up, Right, Down}；斜角组 = {Up-Left, Up-Right, Down-Right, Down-Left}。
    - 仅在组内做两两比较，不跨组比较。
@@ -171,7 +174,6 @@
    - 组内均值（例如门组）: mean = mean(p_i)（忽略为 0 的项以避免 Total=0 的影响）。
    - 以百分比形式计算偏差列： (p_i - mean) * 100。
    - 方差（%^2）使用样本方差（ddof=0），标准差为方差的平方根（%）。
-注：脚本中所有概率与检验均基于观测计数，若 Total=0 或 A+B=0 的情况会被跳过或以 0 处理。
 本页（置信区间验证）中特别说明：
  - Doors 使用的 alpha = 0.05 / 4（Bonferroni 分配用于单个类别的 Wilson 区间计算）。
  - Directions 使用的 alpha = 0.05 / 8（Bonferroni 分配用于单个方向的 Wilson 区间计算）。
@@ -251,15 +253,18 @@
 3) 两类显著性比较（用于判断 A &gt; B）
    - 只看落在 A 或 B 的样本，令 m = A + B。
    - 在原假设 H0: p_A = p_B（条件下 p = 0.5）下，A ~ Binomial(m, 0.5)。
-   - 使用精确二项检验（binomtest）做单侧检验：H1: p_A &gt; 0.5（即 A 的概率大于 B）。
+   - 使用精确二项检验（binomtest）做单侧检验：H1: p_A &gt; 0.5（即 A 的条件概率大于 B）。
    - 得到单侧 p_value（脚本中称为原始 p_value）。
 4) 多重比较校正（组内 Bonferroni）
    - 在同一组（例如门组或某方向子组）内做所有两两比较，若组内共有 T 个两两比较，
      则每次检验的显著性阈值设为 alpha_per_test = overall_alpha / T（overall_alpha 默认为 0.05）。
    - 仅当单侧 p_value &lt;= alpha_per_test 时，记录显著结论 A&gt;B（或 B&gt;A）。
-5) 差值与效应量
-   - 在两类比较中，观测差值定义为 diff = pA - pB，其中 pA = A / m, pB = B / m。
-   - diff 用于衡量实际效应大小；p_value 用于衡量统计显著性，两者需结合解读。
+5) 差值与效应量（使用总样本 N 作为分母）
+   - 在两类比较中，差值定义为：
+       diff_total = (A/N) - (B/N)，其中 N 为总样本量。
+   - 这样差值直接反映在总样本中的概率差异，便于与“误差 ≤1%（按 N 分母）”规则对齐。
+   - 在结论页中，差值单元格按以下规则着色：
+       &lt;1% → 灰色；1%~2% → 黄色；≥2% → 绿色。
 6) 方向比较限制（脚本实现细节）
    - 方向分为两组：直角组 = {Left, Up, Right, Down}；斜角组 = {Up-Left, Up-Right, Down-Right, Down-Left}。
    - 仅在组内做两两比较，不跨组比较。
@@ -269,11 +274,10 @@
    - 组内均值（例如门组）: mean = mean(p_i)（忽略为 0 的项以避免 Total=0 的影响）。
    - 以百分比形式计算偏差列： (p_i - mean) * 100。
    - 方差（%^2）使用样本方差（ddof=0），标准差为方差的平方根（%）。
-注：脚本中所有概率与检验均基于观测计数，若 Total=0 或 A+B=0 的情况会被跳过或以 0 处理。
 本页（结论-门）说明：
  - 对每个实验，门组内共有 4 个类别，共 T = C(4,2) = 6 个两两比较。
  - 使用 overall_alpha = 0.05，组内 Bonferroni 校正后 alpha_per_test = 0.05 / 6 ≈ 0.008333。
- - 每条结论为单侧精确二项检验显著的比较，格式： 实验编号 | 结论 | p_value | A_count | B_count | 差值(pA-pB)。
+ - 每条结论为单侧精确二项检验显著的比较，格式： 实验编号 | 结论 | p_value | A_count | B_count | 差值(pA-pB, N分母)。
 </t>
   </si>
   <si>
@@ -293,15 +297,18 @@
 3) 两类显著性比较（用于判断 A &gt; B）
    - 只看落在 A 或 B 的样本，令 m = A + B。
    - 在原假设 H0: p_A = p_B（条件下 p = 0.5）下，A ~ Binomial(m, 0.5)。
-   - 使用精确二项检验（binomtest）做单侧检验：H1: p_A &gt; 0.5（即 A 的概率大于 B）。
+   - 使用精确二项检验（binomtest）做单侧检验：H1: p_A &gt; 0.5（即 A 的条件概率大于 B）。
    - 得到单侧 p_value（脚本中称为原始 p_value）。
 4) 多重比较校正（组内 Bonferroni）
    - 在同一组（例如门组或某方向子组）内做所有两两比较，若组内共有 T 个两两比较，
      则每次检验的显著性阈值设为 alpha_per_test = overall_alpha / T（overall_alpha 默认为 0.05）。
    - 仅当单侧 p_value &lt;= alpha_per_test 时，记录显著结论 A&gt;B（或 B&gt;A）。
-5) 差值与效应量
-   - 在两类比较中，观测差值定义为 diff = pA - pB，其中 pA = A / m, pB = B / m。
-   - diff 用于衡量实际效应大小；p_value 用于衡量统计显著性，两者需结合解读。
+5) 差值与效应量（使用总样本 N 作为分母）
+   - 在两类比较中，差值定义为：
+       diff_total = (A/N) - (B/N)，其中 N 为总样本量。
+   - 这样差值直接反映在总样本中的概率差异，便于与“误差 ≤1%（按 N 分母）”规则对齐。
+   - 在结论页中，差值单元格按以下规则着色：
+       &lt;1% → 灰色；1%~2% → 黄色；≥2% → 绿色。
 6) 方向比较限制（脚本实现细节）
    - 方向分为两组：直角组 = {Left, Up, Right, Down}；斜角组 = {Up-Left, Up-Right, Down-Right, Down-Left}。
    - 仅在组内做两两比较，不跨组比较。
@@ -311,11 +318,10 @@
    - 组内均值（例如门组）: mean = mean(p_i)（忽略为 0 的项以避免 Total=0 的影响）。
    - 以百分比形式计算偏差列： (p_i - mean) * 100。
    - 方差（%^2）使用样本方差（ddof=0），标准差为方差的平方根（%）。
-注：脚本中所有概率与检验均基于观测计数，若 Total=0 或 A+B=0 的情况会被跳过或以 0 处理。
 本页（结论-方向）说明：
  - 方向被分为两组：直角组（4 个）与斜角组（4 个），每组内分别做两两比较。
  - 每组内比较数量均为 T = C(4,2) = 6，组内 Bonferroni 校正 alpha_per_test = 0.05 / 6。
- - 仅在组内记录显著结论，格式同上： 实验编号 | 结论 | p_value | A_count | B_count | 差值(pA-pB)。
+ - 仅在组内记录显著结论，格式同上： 实验编号 | 结论 | p_value | A_count | B_count | 差值(pA-pB, N分母)。
 </t>
   </si>
   <si>
@@ -334,7 +340,7 @@
     <t>B_count</t>
   </si>
   <si>
-    <t>差值(pA-pB)</t>
+    <t>差值(pA-pB, N分母)</t>
   </si>
   <si>
     <t>Left&gt;Up</t>
@@ -479,7 +485,29 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="3">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD9D9D9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFD966"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFA9D08E"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
@@ -1487,7 +1515,7 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G88"/>
+  <dimension ref="A1:G89"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1916,75 +1944,60 @@
       <c r="E52" s="6"/>
       <c r="F52" s="6"/>
     </row>
-    <row r="53" spans="1:7">
-      <c r="A53" s="7" t="s">
-        <v>39</v>
-      </c>
+    <row r="53" spans="1:7" ht="18" customHeight="1">
+      <c r="A53" s="6"/>
+      <c r="B53" s="6"/>
+      <c r="C53" s="6"/>
+      <c r="D53" s="6"/>
+      <c r="E53" s="6"/>
+      <c r="F53" s="6"/>
     </row>
     <row r="54" spans="1:7">
       <c r="A54" s="7" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7">
+      <c r="A55" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="B54" s="7" t="s">
+      <c r="B55" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="C54" s="7" t="s">
+      <c r="C55" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="D54" s="7" t="s">
+      <c r="D55" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="E54" s="7" t="s">
+      <c r="E55" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="F54" s="7" t="s">
+      <c r="F55" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="G54" s="7" t="s">
+      <c r="G55" s="7" t="s">
         <v>46</v>
-      </c>
-    </row>
-    <row r="55" spans="1:7">
-      <c r="A55" t="s">
-        <v>47</v>
-      </c>
-      <c r="B55">
-        <v>9846</v>
-      </c>
-      <c r="C55">
-        <v>0.318527</v>
-      </c>
-      <c r="D55">
-        <v>0.311946</v>
-      </c>
-      <c r="E55">
-        <v>0.325182</v>
-      </c>
-      <c r="F55">
-        <v>0.006655</v>
-      </c>
-      <c r="G55" t="b">
-        <v>1</v>
       </c>
     </row>
     <row r="56" spans="1:7">
       <c r="A56" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B56">
-        <v>5674</v>
+        <v>9846</v>
       </c>
       <c r="C56">
-        <v>0.183559</v>
+        <v>0.318527</v>
       </c>
       <c r="D56">
-        <v>0.178124</v>
+        <v>0.311946</v>
       </c>
       <c r="E56">
-        <v>0.189123</v>
+        <v>0.325182</v>
       </c>
       <c r="F56">
-        <v>0.005563</v>
+        <v>0.006655</v>
       </c>
       <c r="G56" t="b">
         <v>1</v>
@@ -1992,22 +2005,22 @@
     </row>
     <row r="57" spans="1:7">
       <c r="A57" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B57">
-        <v>9898</v>
+        <v>5674</v>
       </c>
       <c r="C57">
-        <v>0.32021</v>
+        <v>0.183559</v>
       </c>
       <c r="D57">
-        <v>0.313618</v>
+        <v>0.178124</v>
       </c>
       <c r="E57">
-        <v>0.326873</v>
+        <v>0.189123</v>
       </c>
       <c r="F57">
-        <v>0.006664</v>
+        <v>0.005563</v>
       </c>
       <c r="G57" t="b">
         <v>1</v>
@@ -2015,96 +2028,96 @@
     </row>
     <row r="58" spans="1:7">
       <c r="A58" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B58">
-        <v>11167</v>
+        <v>9898</v>
       </c>
       <c r="C58">
-        <v>0.361263</v>
+        <v>0.32021</v>
       </c>
       <c r="D58">
-        <v>0.354467</v>
+        <v>0.313618</v>
       </c>
       <c r="E58">
-        <v>0.368115</v>
+        <v>0.326873</v>
       </c>
       <c r="F58">
-        <v>0.006852</v>
+        <v>0.006664</v>
       </c>
       <c r="G58" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="60" spans="1:7">
-      <c r="A60" s="7" t="s">
-        <v>51</v>
+    <row r="59" spans="1:7">
+      <c r="A59" t="s">
+        <v>50</v>
+      </c>
+      <c r="B59">
+        <v>11167</v>
+      </c>
+      <c r="C59">
+        <v>0.361263</v>
+      </c>
+      <c r="D59">
+        <v>0.354467</v>
+      </c>
+      <c r="E59">
+        <v>0.368115</v>
+      </c>
+      <c r="F59">
+        <v>0.006852</v>
+      </c>
+      <c r="G59" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="61" spans="1:7">
       <c r="A61" s="7" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7">
+      <c r="A62" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="B61" s="7" t="s">
+      <c r="B62" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="C61" s="7" t="s">
+      <c r="C62" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="D61" s="7" t="s">
+      <c r="D62" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="E61" s="7" t="s">
+      <c r="E62" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="F61" s="7" t="s">
+      <c r="F62" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="G61" s="7" t="s">
+      <c r="G62" s="7" t="s">
         <v>46</v>
-      </c>
-    </row>
-    <row r="62" spans="1:7">
-      <c r="A62" t="s">
-        <v>47</v>
-      </c>
-      <c r="B62">
-        <v>3638</v>
-      </c>
-      <c r="C62">
-        <v>0.117693</v>
-      </c>
-      <c r="D62">
-        <v>0.112773</v>
-      </c>
-      <c r="E62">
-        <v>0.122797</v>
-      </c>
-      <c r="F62">
-        <v>0.005104</v>
-      </c>
-      <c r="G62" t="b">
-        <v>1</v>
       </c>
     </row>
     <row r="63" spans="1:7">
       <c r="A63" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="B63">
-        <v>4614</v>
+        <v>3638</v>
       </c>
       <c r="C63">
-        <v>0.149267</v>
+        <v>0.117693</v>
       </c>
       <c r="D63">
-        <v>0.14381</v>
+        <v>0.112773</v>
       </c>
       <c r="E63">
-        <v>0.154894</v>
+        <v>0.122797</v>
       </c>
       <c r="F63">
-        <v>0.005627</v>
+        <v>0.005104</v>
       </c>
       <c r="G63" t="b">
         <v>1</v>
@@ -2112,22 +2125,22 @@
     </row>
     <row r="64" spans="1:7">
       <c r="A64" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="B64">
-        <v>1881</v>
+        <v>4614</v>
       </c>
       <c r="C64">
-        <v>0.060852</v>
+        <v>0.149267</v>
       </c>
       <c r="D64">
-        <v>0.057239</v>
+        <v>0.14381</v>
       </c>
       <c r="E64">
-        <v>0.064677</v>
+        <v>0.154894</v>
       </c>
       <c r="F64">
-        <v>0.003825</v>
+        <v>0.005627</v>
       </c>
       <c r="G64" t="b">
         <v>1</v>
@@ -2135,22 +2148,22 @@
     </row>
     <row r="65" spans="1:7">
       <c r="A65" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="B65">
-        <v>4495</v>
+        <v>1881</v>
       </c>
       <c r="C65">
-        <v>0.145417</v>
+        <v>0.060852</v>
       </c>
       <c r="D65">
-        <v>0.140021</v>
+        <v>0.057239</v>
       </c>
       <c r="E65">
-        <v>0.150986</v>
+        <v>0.064677</v>
       </c>
       <c r="F65">
-        <v>0.005568</v>
+        <v>0.003825</v>
       </c>
       <c r="G65" t="b">
         <v>1</v>
@@ -2158,22 +2171,22 @@
     </row>
     <row r="66" spans="1:7">
       <c r="A66" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="B66">
-        <v>3612</v>
+        <v>4495</v>
       </c>
       <c r="C66">
-        <v>0.116852</v>
+        <v>0.145417</v>
       </c>
       <c r="D66">
-        <v>0.111948</v>
+        <v>0.140021</v>
       </c>
       <c r="E66">
-        <v>0.121941</v>
+        <v>0.150986</v>
       </c>
       <c r="F66">
-        <v>0.005089</v>
+        <v>0.005568</v>
       </c>
       <c r="G66" t="b">
         <v>1</v>
@@ -2181,22 +2194,22 @@
     </row>
     <row r="67" spans="1:7">
       <c r="A67" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="B67">
-        <v>3885</v>
+        <v>3612</v>
       </c>
       <c r="C67">
-        <v>0.125683</v>
+        <v>0.116852</v>
       </c>
       <c r="D67">
-        <v>0.120618</v>
+        <v>0.111948</v>
       </c>
       <c r="E67">
-        <v>0.13093</v>
+        <v>0.121941</v>
       </c>
       <c r="F67">
-        <v>0.005246</v>
+        <v>0.005089</v>
       </c>
       <c r="G67" t="b">
         <v>1</v>
@@ -2204,22 +2217,22 @@
     </row>
     <row r="68" spans="1:7">
       <c r="A68" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="B68">
-        <v>4761</v>
+        <v>3885</v>
       </c>
       <c r="C68">
-        <v>0.154023</v>
+        <v>0.125683</v>
       </c>
       <c r="D68">
-        <v>0.148493</v>
+        <v>0.120618</v>
       </c>
       <c r="E68">
-        <v>0.15972</v>
+        <v>0.13093</v>
       </c>
       <c r="F68">
-        <v>0.005698</v>
+        <v>0.005246</v>
       </c>
       <c r="G68" t="b">
         <v>1</v>
@@ -2227,96 +2240,96 @@
     </row>
     <row r="69" spans="1:7">
       <c r="A69" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="B69">
-        <v>4025</v>
+        <v>4761</v>
       </c>
       <c r="C69">
-        <v>0.130213</v>
+        <v>0.154023</v>
       </c>
       <c r="D69">
-        <v>0.125068</v>
+        <v>0.148493</v>
       </c>
       <c r="E69">
-        <v>0.135536</v>
+        <v>0.15972</v>
       </c>
       <c r="F69">
-        <v>0.005324</v>
+        <v>0.005698</v>
       </c>
       <c r="G69" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="72" spans="1:7">
-      <c r="A72" s="7" t="s">
-        <v>56</v>
+    <row r="70" spans="1:7">
+      <c r="A70" t="s">
+        <v>55</v>
+      </c>
+      <c r="B70">
+        <v>4025</v>
+      </c>
+      <c r="C70">
+        <v>0.130213</v>
+      </c>
+      <c r="D70">
+        <v>0.125068</v>
+      </c>
+      <c r="E70">
+        <v>0.135536</v>
+      </c>
+      <c r="F70">
+        <v>0.005324</v>
+      </c>
+      <c r="G70" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="73" spans="1:7">
       <c r="A73" s="7" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7">
+      <c r="A74" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="B73" s="7" t="s">
+      <c r="B74" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="C73" s="7" t="s">
+      <c r="C74" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="D73" s="7" t="s">
+      <c r="D74" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="E73" s="7" t="s">
+      <c r="E74" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="F73" s="7" t="s">
+      <c r="F74" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="G73" s="7" t="s">
+      <c r="G74" s="7" t="s">
         <v>46</v>
-      </c>
-    </row>
-    <row r="74" spans="1:7">
-      <c r="A74" t="s">
-        <v>47</v>
-      </c>
-      <c r="B74">
-        <v>10166</v>
-      </c>
-      <c r="C74">
-        <v>0.32888</v>
-      </c>
-      <c r="D74">
-        <v>0.322241</v>
-      </c>
-      <c r="E74">
-        <v>0.335588</v>
-      </c>
-      <c r="F74">
-        <v>0.006708</v>
-      </c>
-      <c r="G74" t="b">
-        <v>1</v>
       </c>
     </row>
     <row r="75" spans="1:7">
       <c r="A75" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B75">
-        <v>5386</v>
+        <v>10166</v>
       </c>
       <c r="C75">
-        <v>0.174242</v>
+        <v>0.32888</v>
       </c>
       <c r="D75">
-        <v>0.168919</v>
+        <v>0.322241</v>
       </c>
       <c r="E75">
-        <v>0.179697</v>
+        <v>0.335588</v>
       </c>
       <c r="F75">
-        <v>0.005454</v>
+        <v>0.006708</v>
       </c>
       <c r="G75" t="b">
         <v>1</v>
@@ -2324,22 +2337,22 @@
     </row>
     <row r="76" spans="1:7">
       <c r="A76" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B76">
-        <v>10108</v>
+        <v>5386</v>
       </c>
       <c r="C76">
-        <v>0.327003</v>
+        <v>0.174242</v>
       </c>
       <c r="D76">
-        <v>0.320374</v>
+        <v>0.168919</v>
       </c>
       <c r="E76">
-        <v>0.333702</v>
+        <v>0.179697</v>
       </c>
       <c r="F76">
-        <v>0.006699</v>
+        <v>0.005454</v>
       </c>
       <c r="G76" t="b">
         <v>1</v>
@@ -2347,96 +2360,96 @@
     </row>
     <row r="77" spans="1:7">
       <c r="A77" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B77">
-        <v>11238</v>
+        <v>10108</v>
       </c>
       <c r="C77">
-        <v>0.36356</v>
+        <v>0.327003</v>
       </c>
       <c r="D77">
-        <v>0.356754</v>
+        <v>0.320374</v>
       </c>
       <c r="E77">
-        <v>0.37042</v>
+        <v>0.333702</v>
       </c>
       <c r="F77">
-        <v>0.006861</v>
+        <v>0.006699</v>
       </c>
       <c r="G77" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="79" spans="1:7">
-      <c r="A79" s="7" t="s">
-        <v>57</v>
+    <row r="78" spans="1:7">
+      <c r="A78" t="s">
+        <v>50</v>
+      </c>
+      <c r="B78">
+        <v>11238</v>
+      </c>
+      <c r="C78">
+        <v>0.36356</v>
+      </c>
+      <c r="D78">
+        <v>0.356754</v>
+      </c>
+      <c r="E78">
+        <v>0.37042</v>
+      </c>
+      <c r="F78">
+        <v>0.006861</v>
+      </c>
+      <c r="G78" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="80" spans="1:7">
       <c r="A80" s="7" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7">
+      <c r="A81" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="B80" s="7" t="s">
+      <c r="B81" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="C80" s="7" t="s">
+      <c r="C81" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="D80" s="7" t="s">
+      <c r="D81" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="E80" s="7" t="s">
+      <c r="E81" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="F80" s="7" t="s">
+      <c r="F81" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="G80" s="7" t="s">
+      <c r="G81" s="7" t="s">
         <v>46</v>
-      </c>
-    </row>
-    <row r="81" spans="1:7">
-      <c r="A81" t="s">
-        <v>47</v>
-      </c>
-      <c r="B81">
-        <v>4303</v>
-      </c>
-      <c r="C81">
-        <v>0.139206</v>
-      </c>
-      <c r="D81">
-        <v>0.13391</v>
-      </c>
-      <c r="E81">
-        <v>0.144677</v>
-      </c>
-      <c r="F81">
-        <v>0.005471</v>
-      </c>
-      <c r="G81" t="b">
-        <v>1</v>
       </c>
     </row>
     <row r="82" spans="1:7">
       <c r="A82" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="B82">
-        <v>3538</v>
+        <v>4303</v>
       </c>
       <c r="C82">
-        <v>0.114458</v>
+        <v>0.139206</v>
       </c>
       <c r="D82">
-        <v>0.109599</v>
+        <v>0.13391</v>
       </c>
       <c r="E82">
-        <v>0.119503</v>
+        <v>0.144677</v>
       </c>
       <c r="F82">
-        <v>0.005045</v>
+        <v>0.005471</v>
       </c>
       <c r="G82" t="b">
         <v>1</v>
@@ -2444,22 +2457,22 @@
     </row>
     <row r="83" spans="1:7">
       <c r="A83" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="B83">
-        <v>1527</v>
+        <v>3538</v>
       </c>
       <c r="C83">
-        <v>0.0494</v>
+        <v>0.114458</v>
       </c>
       <c r="D83">
-        <v>0.046137</v>
+        <v>0.109599</v>
       </c>
       <c r="E83">
-        <v>0.05288</v>
+        <v>0.119503</v>
       </c>
       <c r="F83">
-        <v>0.003481</v>
+        <v>0.005045</v>
       </c>
       <c r="G83" t="b">
         <v>1</v>
@@ -2467,22 +2480,22 @@
     </row>
     <row r="84" spans="1:7">
       <c r="A84" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="B84">
-        <v>3692</v>
+        <v>1527</v>
       </c>
       <c r="C84">
-        <v>0.11944</v>
+        <v>0.0494</v>
       </c>
       <c r="D84">
-        <v>0.114488</v>
+        <v>0.046137</v>
       </c>
       <c r="E84">
-        <v>0.124576</v>
+        <v>0.05288</v>
       </c>
       <c r="F84">
-        <v>0.005136</v>
+        <v>0.003481</v>
       </c>
       <c r="G84" t="b">
         <v>1</v>
@@ -2490,22 +2503,22 @@
     </row>
     <row r="85" spans="1:7">
       <c r="A85" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="B85">
-        <v>4291</v>
+        <v>3692</v>
       </c>
       <c r="C85">
-        <v>0.138818</v>
+        <v>0.11944</v>
       </c>
       <c r="D85">
-        <v>0.133528</v>
+        <v>0.114488</v>
       </c>
       <c r="E85">
-        <v>0.144283</v>
+        <v>0.124576</v>
       </c>
       <c r="F85">
-        <v>0.005465</v>
+        <v>0.005136</v>
       </c>
       <c r="G85" t="b">
         <v>1</v>
@@ -2513,22 +2526,22 @@
     </row>
     <row r="86" spans="1:7">
       <c r="A86" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="B86">
-        <v>4407</v>
+        <v>4291</v>
       </c>
       <c r="C86">
-        <v>0.142571</v>
+        <v>0.138818</v>
       </c>
       <c r="D86">
-        <v>0.137219</v>
+        <v>0.133528</v>
       </c>
       <c r="E86">
-        <v>0.148095</v>
+        <v>0.144283</v>
       </c>
       <c r="F86">
-        <v>0.005524</v>
+        <v>0.005465</v>
       </c>
       <c r="G86" t="b">
         <v>1</v>
@@ -2536,22 +2549,22 @@
     </row>
     <row r="87" spans="1:7">
       <c r="A87" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="B87">
-        <v>4665</v>
+        <v>4407</v>
       </c>
       <c r="C87">
-        <v>0.150917</v>
+        <v>0.142571</v>
       </c>
       <c r="D87">
-        <v>0.145434</v>
+        <v>0.137219</v>
       </c>
       <c r="E87">
-        <v>0.156569</v>
+        <v>0.148095</v>
       </c>
       <c r="F87">
-        <v>0.005652</v>
+        <v>0.005524</v>
       </c>
       <c r="G87" t="b">
         <v>1</v>
@@ -2559,30 +2572,53 @@
     </row>
     <row r="88" spans="1:7">
       <c r="A88" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="B88">
-        <v>4488</v>
+        <v>4665</v>
       </c>
       <c r="C88">
-        <v>0.145191</v>
+        <v>0.150917</v>
       </c>
       <c r="D88">
-        <v>0.139798</v>
+        <v>0.145434</v>
       </c>
       <c r="E88">
-        <v>0.150756</v>
+        <v>0.156569</v>
       </c>
       <c r="F88">
-        <v>0.005565</v>
+        <v>0.005652</v>
       </c>
       <c r="G88" t="b">
         <v>1</v>
       </c>
     </row>
+    <row r="89" spans="1:7">
+      <c r="A89" t="s">
+        <v>55</v>
+      </c>
+      <c r="B89">
+        <v>4488</v>
+      </c>
+      <c r="C89">
+        <v>0.145191</v>
+      </c>
+      <c r="D89">
+        <v>0.139798</v>
+      </c>
+      <c r="E89">
+        <v>0.150756</v>
+      </c>
+      <c r="F89">
+        <v>0.005565</v>
+      </c>
+      <c r="G89" t="b">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A1:F52"/>
+    <mergeCell ref="A1:F53"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2590,7 +2626,7 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F64"/>
+  <dimension ref="A1:F65"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3027,44 +3063,32 @@
       <c r="E53" s="6"/>
       <c r="F53" s="6"/>
     </row>
-    <row r="54" spans="1:6">
-      <c r="A54" s="7" t="s">
+    <row r="54" spans="1:6" ht="18" customHeight="1">
+      <c r="A54" s="6"/>
+      <c r="B54" s="6"/>
+      <c r="C54" s="6"/>
+      <c r="D54" s="6"/>
+      <c r="E54" s="6"/>
+      <c r="F54" s="6"/>
+    </row>
+    <row r="55" spans="1:6">
+      <c r="A55" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="B54" s="7" t="s">
+      <c r="B55" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="C54" s="7" t="s">
+      <c r="C55" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="D54" s="7" t="s">
+      <c r="D55" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="E54" s="7" t="s">
+      <c r="E55" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="F54" s="7" t="s">
+      <c r="F55" s="7" t="s">
         <v>65</v>
-      </c>
-    </row>
-    <row r="55" spans="1:6">
-      <c r="A55" t="s">
-        <v>14</v>
-      </c>
-      <c r="B55" t="s">
-        <v>66</v>
-      </c>
-      <c r="C55">
-        <v>4.415232352912125E-249</v>
-      </c>
-      <c r="D55">
-        <v>9846</v>
-      </c>
-      <c r="E55">
-        <v>5674</v>
-      </c>
-      <c r="F55">
-        <v>0.268814</v>
       </c>
     </row>
     <row r="56" spans="1:6">
@@ -3072,19 +3096,19 @@
         <v>14</v>
       </c>
       <c r="B56" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C56">
-        <v>4.156861553889566E-20</v>
+        <v>4.415232352912125E-249</v>
       </c>
       <c r="D56">
         <v>9846</v>
       </c>
       <c r="E56">
-        <v>11167</v>
+        <v>5674</v>
       </c>
       <c r="F56">
-        <v>0.06286600000000001</v>
+        <v>0.134968</v>
       </c>
     </row>
     <row r="57" spans="1:6">
@@ -3092,19 +3116,19 @@
         <v>14</v>
       </c>
       <c r="B57" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C57">
-        <v>1.74988571191264E-254</v>
+        <v>4.156861553889566E-20</v>
       </c>
       <c r="D57">
-        <v>5674</v>
+        <v>9846</v>
       </c>
       <c r="E57">
-        <v>9898</v>
+        <v>11167</v>
       </c>
       <c r="F57">
-        <v>0.271256</v>
+        <v>-0.042736</v>
       </c>
     </row>
     <row r="58" spans="1:6">
@@ -3112,19 +3136,19 @@
         <v>14</v>
       </c>
       <c r="B58" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C58">
-        <v>0</v>
+        <v>1.74988571191264E-254</v>
       </c>
       <c r="D58">
         <v>5674</v>
       </c>
       <c r="E58">
-        <v>11167</v>
+        <v>9898</v>
       </c>
       <c r="F58">
-        <v>0.326168</v>
+        <v>-0.13665</v>
       </c>
     </row>
     <row r="59" spans="1:6">
@@ -3132,39 +3156,39 @@
         <v>14</v>
       </c>
       <c r="B59" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C59">
-        <v>1.174585436408946E-18</v>
+        <v>0</v>
       </c>
       <c r="D59">
-        <v>9898</v>
+        <v>5674</v>
       </c>
       <c r="E59">
         <v>11167</v>
       </c>
       <c r="F59">
-        <v>0.060242</v>
+        <v>-0.177704</v>
       </c>
     </row>
     <row r="60" spans="1:6">
       <c r="A60" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B60" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="C60">
-        <v>0</v>
+        <v>1.174585436408946E-18</v>
       </c>
       <c r="D60">
-        <v>10166</v>
+        <v>9898</v>
       </c>
       <c r="E60">
-        <v>5386</v>
+        <v>11167</v>
       </c>
       <c r="F60">
-        <v>0.307356</v>
+        <v>-0.041053</v>
       </c>
     </row>
     <row r="61" spans="1:6">
@@ -3172,19 +3196,19 @@
         <v>15</v>
       </c>
       <c r="B61" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C61">
-        <v>1.221316015644245E-13</v>
+        <v>0</v>
       </c>
       <c r="D61">
         <v>10166</v>
       </c>
       <c r="E61">
-        <v>11238</v>
+        <v>5386</v>
       </c>
       <c r="F61">
-        <v>0.050084</v>
+        <v>0.154638</v>
       </c>
     </row>
     <row r="62" spans="1:6">
@@ -3192,19 +3216,19 @@
         <v>15</v>
       </c>
       <c r="B62" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C62">
-        <v>4.334437910965256E-320</v>
+        <v>1.221316015644245E-13</v>
       </c>
       <c r="D62">
-        <v>5386</v>
+        <v>10166</v>
       </c>
       <c r="E62">
-        <v>10108</v>
+        <v>11238</v>
       </c>
       <c r="F62">
-        <v>0.304763</v>
+        <v>-0.03468</v>
       </c>
     </row>
     <row r="63" spans="1:6">
@@ -3212,19 +3236,19 @@
         <v>15</v>
       </c>
       <c r="B63" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C63">
-        <v>0</v>
+        <v>4.334437910965256E-320</v>
       </c>
       <c r="D63">
         <v>5386</v>
       </c>
       <c r="E63">
-        <v>11238</v>
+        <v>10108</v>
       </c>
       <c r="F63">
-        <v>0.352021</v>
+        <v>-0.152761</v>
       </c>
     </row>
     <row r="64" spans="1:6">
@@ -3232,32 +3256,64 @@
         <v>15</v>
       </c>
       <c r="B64" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C64">
-        <v>5.410637300729848E-15</v>
+        <v>0</v>
       </c>
       <c r="D64">
-        <v>10108</v>
+        <v>5386</v>
       </c>
       <c r="E64">
         <v>11238</v>
       </c>
       <c r="F64">
-        <v>0.052937</v>
+        <v>-0.189318</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6">
+      <c r="A65" t="s">
+        <v>15</v>
+      </c>
+      <c r="B65" t="s">
+        <v>70</v>
+      </c>
+      <c r="C65">
+        <v>5.410637300729848E-15</v>
+      </c>
+      <c r="D65">
+        <v>10108</v>
+      </c>
+      <c r="E65">
+        <v>11238</v>
+      </c>
+      <c r="F65">
+        <v>-0.036557</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A1:F53"/>
+    <mergeCell ref="A1:F54"/>
   </mergeCells>
+  <conditionalFormatting sqref="F56:F65">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="lessThan">
+      <formula>0.01</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="2" operator="between">
+      <formula>0.01</formula>
+      <formula>0.02</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="3" operator="greaterThanOrEqual">
+      <formula>0.02</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F72"/>
+  <dimension ref="A1:F73"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3694,44 +3750,32 @@
       <c r="E53" s="6"/>
       <c r="F53" s="6"/>
     </row>
-    <row r="54" spans="1:6">
-      <c r="A54" s="7" t="s">
+    <row r="54" spans="1:6" ht="18" customHeight="1">
+      <c r="A54" s="6"/>
+      <c r="B54" s="6"/>
+      <c r="C54" s="6"/>
+      <c r="D54" s="6"/>
+      <c r="E54" s="6"/>
+      <c r="F54" s="6"/>
+    </row>
+    <row r="55" spans="1:6">
+      <c r="A55" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="B54" s="7" t="s">
+      <c r="B55" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="C54" s="7" t="s">
+      <c r="C55" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="D54" s="7" t="s">
+      <c r="D55" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="E54" s="7" t="s">
+      <c r="E55" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="F54" s="7" t="s">
+      <c r="F55" s="7" t="s">
         <v>65</v>
-      </c>
-    </row>
-    <row r="55" spans="1:6">
-      <c r="A55" t="s">
-        <v>14</v>
-      </c>
-      <c r="B55" t="s">
-        <v>66</v>
-      </c>
-      <c r="C55">
-        <v>5.873770773413136E-126</v>
-      </c>
-      <c r="D55">
-        <v>3638</v>
-      </c>
-      <c r="E55">
-        <v>1881</v>
-      </c>
-      <c r="F55">
-        <v>0.318355</v>
       </c>
     </row>
     <row r="56" spans="1:6">
@@ -3739,19 +3783,19 @@
         <v>14</v>
       </c>
       <c r="B56" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C56">
-        <v>7.338046632718133E-35</v>
+        <v>5.873770773413136E-126</v>
       </c>
       <c r="D56">
         <v>3638</v>
       </c>
       <c r="E56">
-        <v>4761</v>
+        <v>1881</v>
       </c>
       <c r="F56">
-        <v>0.133706</v>
+        <v>0.056841</v>
       </c>
     </row>
     <row r="57" spans="1:6">
@@ -3759,19 +3803,19 @@
         <v>14</v>
       </c>
       <c r="B57" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C57">
-        <v>7.58273656545448E-123</v>
+        <v>7.338046632718133E-35</v>
       </c>
       <c r="D57">
-        <v>1881</v>
+        <v>3638</v>
       </c>
       <c r="E57">
-        <v>3612</v>
+        <v>4761</v>
       </c>
       <c r="F57">
-        <v>0.315128</v>
+        <v>-0.03633</v>
       </c>
     </row>
     <row r="58" spans="1:6">
@@ -3779,19 +3823,19 @@
         <v>14</v>
       </c>
       <c r="B58" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C58">
-        <v>7.50946601666824E-283</v>
+        <v>7.58273656545448E-123</v>
       </c>
       <c r="D58">
         <v>1881</v>
       </c>
       <c r="E58">
-        <v>4761</v>
+        <v>3612</v>
       </c>
       <c r="F58">
-        <v>0.433604</v>
+        <v>-0.055999</v>
       </c>
     </row>
     <row r="59" spans="1:6">
@@ -3799,19 +3843,19 @@
         <v>14</v>
       </c>
       <c r="B59" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C59">
-        <v>1.633021234757425E-36</v>
+        <v>7.50946601666824E-283</v>
       </c>
       <c r="D59">
-        <v>3612</v>
+        <v>1881</v>
       </c>
       <c r="E59">
         <v>4761</v>
       </c>
       <c r="F59">
-        <v>0.137227</v>
+        <v>-0.093171</v>
       </c>
     </row>
     <row r="60" spans="1:6">
@@ -3819,19 +3863,19 @@
         <v>14</v>
       </c>
       <c r="B60" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C60">
-        <v>1.377871299362759E-15</v>
+        <v>1.633021234757425E-36</v>
       </c>
       <c r="D60">
-        <v>4614</v>
+        <v>3612</v>
       </c>
       <c r="E60">
-        <v>3885</v>
+        <v>4761</v>
       </c>
       <c r="F60">
-        <v>0.085775</v>
+        <v>-0.037171</v>
       </c>
     </row>
     <row r="61" spans="1:6">
@@ -3839,19 +3883,19 @@
         <v>14</v>
       </c>
       <c r="B61" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C61">
-        <v>1.236784090804322E-10</v>
+        <v>1.377871299362759E-15</v>
       </c>
       <c r="D61">
         <v>4614</v>
       </c>
       <c r="E61">
-        <v>4025</v>
+        <v>3885</v>
       </c>
       <c r="F61">
-        <v>0.068179</v>
+        <v>0.023584</v>
       </c>
     </row>
     <row r="62" spans="1:6">
@@ -3859,19 +3903,19 @@
         <v>14</v>
       </c>
       <c r="B62" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C62">
-        <v>1.411437983061997E-11</v>
+        <v>1.236784090804322E-10</v>
       </c>
       <c r="D62">
-        <v>4495</v>
+        <v>4614</v>
       </c>
       <c r="E62">
-        <v>3885</v>
+        <v>4025</v>
       </c>
       <c r="F62">
-        <v>0.072792</v>
+        <v>0.019055</v>
       </c>
     </row>
     <row r="63" spans="1:6">
@@ -3879,39 +3923,39 @@
         <v>14</v>
       </c>
       <c r="B63" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C63">
-        <v>1.86465822497439E-07</v>
+        <v>1.411437983061997E-11</v>
       </c>
       <c r="D63">
         <v>4495</v>
       </c>
       <c r="E63">
-        <v>4025</v>
+        <v>3885</v>
       </c>
       <c r="F63">
-        <v>0.055164</v>
+        <v>0.019734</v>
       </c>
     </row>
     <row r="64" spans="1:6">
       <c r="A64" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B64" t="s">
-        <v>66</v>
+        <v>74</v>
       </c>
       <c r="C64">
-        <v>1.851744740224337E-301</v>
+        <v>1.86465822497439E-07</v>
       </c>
       <c r="D64">
-        <v>4303</v>
+        <v>4495</v>
       </c>
       <c r="E64">
-        <v>1527</v>
+        <v>4025</v>
       </c>
       <c r="F64">
-        <v>0.476158</v>
+        <v>0.015205</v>
       </c>
     </row>
     <row r="65" spans="1:6">
@@ -3919,19 +3963,19 @@
         <v>15</v>
       </c>
       <c r="B65" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C65">
-        <v>6.877388310448417E-05</v>
+        <v>1.851744740224337E-301</v>
       </c>
       <c r="D65">
         <v>4303</v>
       </c>
       <c r="E65">
-        <v>4665</v>
+        <v>1527</v>
       </c>
       <c r="F65">
-        <v>0.040366</v>
+        <v>0.089806</v>
       </c>
     </row>
     <row r="66" spans="1:6">
@@ -3939,19 +3983,19 @@
         <v>15</v>
       </c>
       <c r="B66" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C66">
-        <v>1.977398634704555E-299</v>
+        <v>6.877388310448417E-05</v>
       </c>
       <c r="D66">
-        <v>1527</v>
+        <v>4303</v>
       </c>
       <c r="E66">
-        <v>4291</v>
+        <v>4665</v>
       </c>
       <c r="F66">
-        <v>0.475077</v>
+        <v>-0.011711</v>
       </c>
     </row>
     <row r="67" spans="1:6">
@@ -3959,19 +4003,19 @@
         <v>15</v>
       </c>
       <c r="B67" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C67">
-        <v>0</v>
+        <v>1.977398634704555E-299</v>
       </c>
       <c r="D67">
         <v>1527</v>
       </c>
       <c r="E67">
-        <v>4665</v>
+        <v>4291</v>
       </c>
       <c r="F67">
-        <v>0.506783</v>
+        <v>-0.089418</v>
       </c>
     </row>
     <row r="68" spans="1:6">
@@ -3979,19 +4023,19 @@
         <v>15</v>
       </c>
       <c r="B68" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C68">
-        <v>4.041176173238516E-05</v>
+        <v>0</v>
       </c>
       <c r="D68">
-        <v>4291</v>
+        <v>1527</v>
       </c>
       <c r="E68">
         <v>4665</v>
       </c>
       <c r="F68">
-        <v>0.04176</v>
+        <v>-0.101517</v>
       </c>
     </row>
     <row r="69" spans="1:6">
@@ -3999,19 +4043,19 @@
         <v>15</v>
       </c>
       <c r="B69" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="C69">
-        <v>9.435431537566799E-23</v>
+        <v>4.041176173238516E-05</v>
       </c>
       <c r="D69">
-        <v>3538</v>
+        <v>4291</v>
       </c>
       <c r="E69">
-        <v>4407</v>
+        <v>4665</v>
       </c>
       <c r="F69">
-        <v>0.109377</v>
+        <v>-0.012099</v>
       </c>
     </row>
     <row r="70" spans="1:6">
@@ -4019,19 +4063,19 @@
         <v>15</v>
       </c>
       <c r="B70" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C70">
-        <v>1.408752177293286E-26</v>
+        <v>9.435431537566799E-23</v>
       </c>
       <c r="D70">
         <v>3538</v>
       </c>
       <c r="E70">
-        <v>4488</v>
+        <v>4407</v>
       </c>
       <c r="F70">
-        <v>0.118365</v>
+        <v>-0.028113</v>
       </c>
     </row>
     <row r="71" spans="1:6">
@@ -4039,19 +4083,19 @@
         <v>15</v>
       </c>
       <c r="B71" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C71">
-        <v>1.019958855595024E-15</v>
+        <v>1.408752177293286E-26</v>
       </c>
       <c r="D71">
-        <v>3692</v>
+        <v>3538</v>
       </c>
       <c r="E71">
-        <v>4407</v>
+        <v>4488</v>
       </c>
       <c r="F71">
-        <v>0.088283</v>
+        <v>-0.030733</v>
       </c>
     </row>
     <row r="72" spans="1:6">
@@ -4059,25 +4103,57 @@
         <v>15</v>
       </c>
       <c r="B72" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C72">
-        <v>7.033311276848409E-19</v>
+        <v>1.019958855595024E-15</v>
       </c>
       <c r="D72">
         <v>3692</v>
       </c>
       <c r="E72">
+        <v>4407</v>
+      </c>
+      <c r="F72">
+        <v>-0.023131</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6">
+      <c r="A73" t="s">
+        <v>15</v>
+      </c>
+      <c r="B73" t="s">
+        <v>78</v>
+      </c>
+      <c r="C73">
+        <v>7.033311276848409E-19</v>
+      </c>
+      <c r="D73">
+        <v>3692</v>
+      </c>
+      <c r="E73">
         <v>4488</v>
       </c>
-      <c r="F72">
-        <v>0.09731099999999999</v>
+      <c r="F73">
+        <v>-0.025751</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A1:F53"/>
+    <mergeCell ref="A1:F54"/>
   </mergeCells>
+  <conditionalFormatting sqref="F56:F73">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="lessThan">
+      <formula>0.01</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="2" operator="between">
+      <formula>0.01</formula>
+      <formula>0.02</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="3" operator="greaterThanOrEqual">
+      <formula>0.02</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/BDs/BDXLKp/r+_BDXLKp_3.09w.xlsx
+++ b/BDs/BDXLKp/r+_BDXLKp_3.09w.xlsx
@@ -3122,13 +3122,13 @@
         <v>4.156861553889566E-20</v>
       </c>
       <c r="D57">
+        <v>11167</v>
+      </c>
+      <c r="E57">
         <v>9846</v>
       </c>
-      <c r="E57">
-        <v>11167</v>
-      </c>
       <c r="F57">
-        <v>-0.042736</v>
+        <v>0.042736</v>
       </c>
     </row>
     <row r="58" spans="1:6">
@@ -3142,13 +3142,13 @@
         <v>1.74988571191264E-254</v>
       </c>
       <c r="D58">
+        <v>9898</v>
+      </c>
+      <c r="E58">
         <v>5674</v>
       </c>
-      <c r="E58">
-        <v>9898</v>
-      </c>
       <c r="F58">
-        <v>-0.13665</v>
+        <v>0.13665</v>
       </c>
     </row>
     <row r="59" spans="1:6">
@@ -3162,13 +3162,13 @@
         <v>0</v>
       </c>
       <c r="D59">
+        <v>11167</v>
+      </c>
+      <c r="E59">
         <v>5674</v>
       </c>
-      <c r="E59">
-        <v>11167</v>
-      </c>
       <c r="F59">
-        <v>-0.177704</v>
+        <v>0.177704</v>
       </c>
     </row>
     <row r="60" spans="1:6">
@@ -3182,13 +3182,13 @@
         <v>1.174585436408946E-18</v>
       </c>
       <c r="D60">
+        <v>11167</v>
+      </c>
+      <c r="E60">
         <v>9898</v>
       </c>
-      <c r="E60">
-        <v>11167</v>
-      </c>
       <c r="F60">
-        <v>-0.041053</v>
+        <v>0.041053</v>
       </c>
     </row>
     <row r="61" spans="1:6">
@@ -3222,13 +3222,13 @@
         <v>1.221316015644245E-13</v>
       </c>
       <c r="D62">
+        <v>11238</v>
+      </c>
+      <c r="E62">
         <v>10166</v>
       </c>
-      <c r="E62">
-        <v>11238</v>
-      </c>
       <c r="F62">
-        <v>-0.03468</v>
+        <v>0.03468</v>
       </c>
     </row>
     <row r="63" spans="1:6">
@@ -3242,13 +3242,13 @@
         <v>4.334437910965256E-320</v>
       </c>
       <c r="D63">
+        <v>10108</v>
+      </c>
+      <c r="E63">
         <v>5386</v>
       </c>
-      <c r="E63">
-        <v>10108</v>
-      </c>
       <c r="F63">
-        <v>-0.152761</v>
+        <v>0.152761</v>
       </c>
     </row>
     <row r="64" spans="1:6">
@@ -3262,13 +3262,13 @@
         <v>0</v>
       </c>
       <c r="D64">
+        <v>11238</v>
+      </c>
+      <c r="E64">
         <v>5386</v>
       </c>
-      <c r="E64">
-        <v>11238</v>
-      </c>
       <c r="F64">
-        <v>-0.189318</v>
+        <v>0.189318</v>
       </c>
     </row>
     <row r="65" spans="1:6">
@@ -3282,13 +3282,13 @@
         <v>5.410637300729848E-15</v>
       </c>
       <c r="D65">
+        <v>11238</v>
+      </c>
+      <c r="E65">
         <v>10108</v>
       </c>
-      <c r="E65">
-        <v>11238</v>
-      </c>
       <c r="F65">
-        <v>-0.036557</v>
+        <v>0.036557</v>
       </c>
     </row>
   </sheetData>
@@ -3809,13 +3809,13 @@
         <v>7.338046632718133E-35</v>
       </c>
       <c r="D57">
+        <v>4761</v>
+      </c>
+      <c r="E57">
         <v>3638</v>
       </c>
-      <c r="E57">
-        <v>4761</v>
-      </c>
       <c r="F57">
-        <v>-0.03633</v>
+        <v>0.03633</v>
       </c>
     </row>
     <row r="58" spans="1:6">
@@ -3829,13 +3829,13 @@
         <v>7.58273656545448E-123</v>
       </c>
       <c r="D58">
+        <v>3612</v>
+      </c>
+      <c r="E58">
         <v>1881</v>
       </c>
-      <c r="E58">
-        <v>3612</v>
-      </c>
       <c r="F58">
-        <v>-0.055999</v>
+        <v>0.055999</v>
       </c>
     </row>
     <row r="59" spans="1:6">
@@ -3849,13 +3849,13 @@
         <v>7.50946601666824E-283</v>
       </c>
       <c r="D59">
+        <v>4761</v>
+      </c>
+      <c r="E59">
         <v>1881</v>
       </c>
-      <c r="E59">
-        <v>4761</v>
-      </c>
       <c r="F59">
-        <v>-0.093171</v>
+        <v>0.093171</v>
       </c>
     </row>
     <row r="60" spans="1:6">
@@ -3869,13 +3869,13 @@
         <v>1.633021234757425E-36</v>
       </c>
       <c r="D60">
+        <v>4761</v>
+      </c>
+      <c r="E60">
         <v>3612</v>
       </c>
-      <c r="E60">
-        <v>4761</v>
-      </c>
       <c r="F60">
-        <v>-0.037171</v>
+        <v>0.037171</v>
       </c>
     </row>
     <row r="61" spans="1:6">
@@ -3989,13 +3989,13 @@
         <v>6.877388310448417E-05</v>
       </c>
       <c r="D66">
+        <v>4665</v>
+      </c>
+      <c r="E66">
         <v>4303</v>
       </c>
-      <c r="E66">
-        <v>4665</v>
-      </c>
       <c r="F66">
-        <v>-0.011711</v>
+        <v>0.011711</v>
       </c>
     </row>
     <row r="67" spans="1:6">
@@ -4009,13 +4009,13 @@
         <v>1.977398634704555E-299</v>
       </c>
       <c r="D67">
+        <v>4291</v>
+      </c>
+      <c r="E67">
         <v>1527</v>
       </c>
-      <c r="E67">
-        <v>4291</v>
-      </c>
       <c r="F67">
-        <v>-0.089418</v>
+        <v>0.089418</v>
       </c>
     </row>
     <row r="68" spans="1:6">
@@ -4029,13 +4029,13 @@
         <v>0</v>
       </c>
       <c r="D68">
+        <v>4665</v>
+      </c>
+      <c r="E68">
         <v>1527</v>
       </c>
-      <c r="E68">
-        <v>4665</v>
-      </c>
       <c r="F68">
-        <v>-0.101517</v>
+        <v>0.101517</v>
       </c>
     </row>
     <row r="69" spans="1:6">
@@ -4049,13 +4049,13 @@
         <v>4.041176173238516E-05</v>
       </c>
       <c r="D69">
+        <v>4665</v>
+      </c>
+      <c r="E69">
         <v>4291</v>
       </c>
-      <c r="E69">
-        <v>4665</v>
-      </c>
       <c r="F69">
-        <v>-0.012099</v>
+        <v>0.012099</v>
       </c>
     </row>
     <row r="70" spans="1:6">
@@ -4069,13 +4069,13 @@
         <v>9.435431537566799E-23</v>
       </c>
       <c r="D70">
+        <v>4407</v>
+      </c>
+      <c r="E70">
         <v>3538</v>
       </c>
-      <c r="E70">
-        <v>4407</v>
-      </c>
       <c r="F70">
-        <v>-0.028113</v>
+        <v>0.028113</v>
       </c>
     </row>
     <row r="71" spans="1:6">
@@ -4089,13 +4089,13 @@
         <v>1.408752177293286E-26</v>
       </c>
       <c r="D71">
+        <v>4488</v>
+      </c>
+      <c r="E71">
         <v>3538</v>
       </c>
-      <c r="E71">
-        <v>4488</v>
-      </c>
       <c r="F71">
-        <v>-0.030733</v>
+        <v>0.030733</v>
       </c>
     </row>
     <row r="72" spans="1:6">
@@ -4109,13 +4109,13 @@
         <v>1.019958855595024E-15</v>
       </c>
       <c r="D72">
+        <v>4407</v>
+      </c>
+      <c r="E72">
         <v>3692</v>
       </c>
-      <c r="E72">
-        <v>4407</v>
-      </c>
       <c r="F72">
-        <v>-0.023131</v>
+        <v>0.023131</v>
       </c>
     </row>
     <row r="73" spans="1:6">
@@ -4129,13 +4129,13 @@
         <v>7.033311276848409E-19</v>
       </c>
       <c r="D73">
+        <v>4488</v>
+      </c>
+      <c r="E73">
         <v>3692</v>
       </c>
-      <c r="E73">
-        <v>4488</v>
-      </c>
       <c r="F73">
-        <v>-0.025751</v>
+        <v>0.025751</v>
       </c>
     </row>
   </sheetData>
